--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$V$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$W$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -594,16 +594,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23580,17 +23583,17 @@
   </sheetPr>
   <dimension ref="A1:CR130"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A79" colorId="22" zoomScale="63" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="63" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="A79" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.88671875" style="1" customWidth="1"/>
-    <col min="2" max="22" width="12.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.5546875" style="11"/>
+    <col min="2" max="23" width="12.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.5546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23605,7 +23608,7 @@
     </row>
     <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23618,7 +23621,7 @@
     </row>
     <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23649,6 +23652,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -23675,6 +23679,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -23742,6 +23747,9 @@
       </c>
       <c r="V10" s="7">
         <v>2020</v>
+      </c>
+      <c r="W10" s="7">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23767,6 +23775,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -23835,7 +23844,9 @@
       <c r="V12" s="9">
         <v>493604.14745727892</v>
       </c>
-      <c r="W12" s="10"/>
+      <c r="W12" s="9">
+        <v>553839.6052477964</v>
+      </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -23977,7 +23988,9 @@
       <c r="V13" s="9">
         <v>221645.99425728689</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="9">
+        <v>235679.7637872053</v>
+      </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -24075,7 +24088,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
-      <c r="W14" s="10"/>
+      <c r="W14" s="13"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
@@ -24217,7 +24230,9 @@
       <c r="V15" s="15">
         <v>715250.14171456581</v>
       </c>
-      <c r="W15" s="10"/>
+      <c r="W15" s="15">
+        <v>789519.36903500173</v>
+      </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -24315,6 +24330,7 @@
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
     </row>
     <row r="17" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -24341,6 +24357,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
@@ -24365,7 +24382,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="13"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -24463,7 +24480,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="13"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
@@ -24563,6 +24580,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -24589,10 +24607,11 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -24615,6 +24634,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -24639,6 +24659,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -24665,10 +24686,11 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24691,6 +24713,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -24717,6 +24740,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -24741,6 +24765,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -24767,6 +24792,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -24834,6 +24860,9 @@
       </c>
       <c r="V29" s="18">
         <v>2020</v>
+      </c>
+      <c r="W29" s="18">
+        <v>2021</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24859,6 +24888,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -24927,7 +24957,9 @@
       <c r="V31" s="9">
         <v>469975.21199166978</v>
       </c>
-      <c r="W31" s="10"/>
+      <c r="W31" s="9">
+        <v>513039.20251205523</v>
+      </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
@@ -25069,7 +25101,9 @@
       <c r="V32" s="9">
         <v>213588.19307246991</v>
       </c>
-      <c r="W32" s="10"/>
+      <c r="W32" s="9">
+        <v>224987.96864025216</v>
+      </c>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
@@ -25167,7 +25201,7 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
-      <c r="W33" s="10"/>
+      <c r="W33" s="13"/>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -25309,7 +25343,9 @@
       <c r="V34" s="15">
         <v>683563.40506413975</v>
       </c>
-      <c r="W34" s="10"/>
+      <c r="W34" s="15">
+        <v>738027.17115230742</v>
+      </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
@@ -25407,6 +25443,7 @@
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
     </row>
     <row r="36" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
@@ -25433,6 +25470,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
@@ -25457,7 +25495,7 @@
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
-      <c r="W37" s="10"/>
+      <c r="W37" s="13"/>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
@@ -25555,7 +25593,7 @@
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
-      <c r="W38" s="10"/>
+      <c r="W38" s="13"/>
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
@@ -25655,6 +25693,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -25681,10 +25720,11 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25707,6 +25747,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -25731,6 +25772,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -25757,10 +25799,11 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -25783,6 +25826,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -25809,6 +25853,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -25833,6 +25878,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -25858,7 +25904,8 @@
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
-      <c r="V47" s="1"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
     </row>
     <row r="48" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -25922,9 +25969,12 @@
         <v>14</v>
       </c>
       <c r="U48" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="V48" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="V48" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W48" s="20"/>
     </row>
     <row r="49" spans="1:91" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -25949,6 +25999,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
@@ -26014,8 +26065,10 @@
       <c r="U50" s="21">
         <v>0.60322047599686357</v>
       </c>
-      <c r="V50" s="1"/>
-      <c r="W50" s="10"/>
+      <c r="V50" s="21">
+        <v>12.203191180789432</v>
+      </c>
+      <c r="W50" s="21"/>
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
@@ -26149,8 +26202,10 @@
       <c r="U51" s="21">
         <v>-23.099163800683968</v>
       </c>
-      <c r="V51" s="1"/>
-      <c r="W51" s="10"/>
+      <c r="V51" s="21">
+        <v>6.3316143280387962</v>
+      </c>
+      <c r="W51" s="21"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
@@ -26242,8 +26297,8 @@
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
       <c r="U52" s="13"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="10"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
@@ -26377,8 +26432,10 @@
       <c r="U53" s="21">
         <v>-8.1679432576452342</v>
       </c>
-      <c r="V53" s="1"/>
-      <c r="W53" s="10"/>
+      <c r="V53" s="21">
+        <v>10.383671807795935</v>
+      </c>
+      <c r="W53" s="21"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
@@ -26470,7 +26527,8 @@
       <c r="S54" s="16"/>
       <c r="T54" s="16"/>
       <c r="U54" s="16"/>
-      <c r="V54" s="1"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
     </row>
     <row r="55" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
@@ -26497,6 +26555,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
@@ -26520,8 +26579,8 @@
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
       <c r="U56" s="13"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="10"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
@@ -26613,8 +26672,8 @@
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="10"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
       <c r="X57" s="10"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
@@ -26709,6 +26768,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -26735,10 +26795,11 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26761,6 +26822,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -26785,6 +26847,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -26811,10 +26874,11 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -26837,6 +26901,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -26863,6 +26928,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -26887,6 +26953,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
@@ -26912,7 +26979,8 @@
       <c r="S66" s="19"/>
       <c r="T66" s="19"/>
       <c r="U66" s="19"/>
-      <c r="V66" s="1"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
     </row>
     <row r="67" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
@@ -26976,9 +27044,12 @@
         <v>14</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V67" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="V67" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W67" s="7"/>
     </row>
     <row r="68" spans="1:92" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -27003,6 +27074,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
@@ -27068,8 +27140,10 @@
       <c r="U69" s="21">
         <v>-2.046158051635544</v>
       </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="10"/>
+      <c r="V69" s="21">
+        <v>9.1630344370478696</v>
+      </c>
+      <c r="W69" s="21"/>
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
@@ -27203,8 +27277,10 @@
       <c r="U70" s="21">
         <v>-25.396153972383573</v>
       </c>
-      <c r="V70" s="1"/>
-      <c r="W70" s="10"/>
+      <c r="V70" s="21">
+        <v>5.3372686026302603</v>
+      </c>
+      <c r="W70" s="21"/>
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
@@ -27296,8 +27372,8 @@
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
       <c r="U71" s="13"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="10"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
@@ -27431,8 +27507,10 @@
       <c r="U72" s="21">
         <v>-10.772326615628742</v>
       </c>
-      <c r="V72" s="1"/>
-      <c r="W72" s="10"/>
+      <c r="V72" s="21">
+        <v>7.9676246101935817</v>
+      </c>
+      <c r="W72" s="21"/>
       <c r="X72" s="10"/>
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
@@ -27524,7 +27602,8 @@
       <c r="S73" s="16"/>
       <c r="T73" s="16"/>
       <c r="U73" s="16"/>
-      <c r="V73" s="1"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
     </row>
     <row r="74" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
@@ -27551,6 +27630,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
     </row>
     <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
@@ -27575,7 +27655,7 @@
       <c r="T75" s="13"/>
       <c r="U75" s="13"/>
       <c r="V75" s="13"/>
-      <c r="W75" s="10"/>
+      <c r="W75" s="13"/>
       <c r="X75" s="10"/>
       <c r="Y75" s="10"/>
       <c r="Z75" s="10"/>
@@ -27668,7 +27748,7 @@
       <c r="T76" s="13"/>
       <c r="U76" s="13"/>
       <c r="V76" s="13"/>
-      <c r="W76" s="10"/>
+      <c r="W76" s="13"/>
       <c r="X76" s="10"/>
       <c r="Y76" s="10"/>
       <c r="Z76" s="10"/>
@@ -27764,10 +27844,11 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -27790,6 +27871,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -27814,6 +27896,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -27840,10 +27923,11 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -27866,6 +27950,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -27892,6 +27977,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -27916,6 +28002,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -27942,6 +28029,7 @@
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
     </row>
     <row r="85" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
@@ -28009,6 +28097,9 @@
       </c>
       <c r="V85" s="18">
         <v>2020</v>
+      </c>
+      <c r="W85" s="18">
+        <v>2021</v>
       </c>
     </row>
     <row r="86" spans="1:92" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28034,6 +28125,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
@@ -28102,7 +28194,9 @@
       <c r="V87" s="21">
         <v>105.02769824082296</v>
       </c>
-      <c r="W87" s="10"/>
+      <c r="W87" s="21">
+        <v>107.95268715060473</v>
+      </c>
       <c r="X87" s="10"/>
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
@@ -28240,7 +28334,9 @@
       <c r="V88" s="21">
         <v>103.7725873649219</v>
       </c>
-      <c r="W88" s="10"/>
+      <c r="W88" s="21">
+        <v>104.7521630652388</v>
+      </c>
       <c r="X88" s="10"/>
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
@@ -28334,7 +28430,7 @@
       <c r="T89" s="13"/>
       <c r="U89" s="13"/>
       <c r="V89" s="13"/>
-      <c r="W89" s="10"/>
+      <c r="W89" s="13"/>
       <c r="X89" s="10"/>
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
@@ -28472,7 +28568,9 @@
       <c r="V90" s="21">
         <v>104.63552267656178</v>
       </c>
-      <c r="W90" s="10"/>
+      <c r="W90" s="21">
+        <v>106.97700571136124</v>
+      </c>
       <c r="X90" s="10"/>
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
@@ -28566,6 +28664,7 @@
       <c r="T91" s="16"/>
       <c r="U91" s="16"/>
       <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
     </row>
     <row r="92" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
@@ -28592,6 +28691,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A93" s="12"/>
@@ -28616,6 +28716,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A94" s="12"/>
@@ -28640,6 +28741,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -28666,6 +28768,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -28692,10 +28795,11 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28718,6 +28822,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
@@ -28742,6 +28847,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -28768,10 +28874,11 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -28794,6 +28901,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -28820,6 +28928,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
@@ -28844,6 +28953,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
@@ -28870,6 +28980,7 @@
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
     </row>
     <row r="104" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -28937,6 +29048,9 @@
       </c>
       <c r="V104" s="18">
         <v>2020</v>
+      </c>
+      <c r="W104" s="18">
+        <v>2021</v>
       </c>
     </row>
     <row r="105" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28962,6 +29076,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
@@ -29030,7 +29145,9 @@
       <c r="V106" s="21">
         <v>69.011401560023884</v>
       </c>
-      <c r="W106" s="10"/>
+      <c r="W106" s="21">
+        <v>70.148957323837749</v>
+      </c>
       <c r="X106" s="10"/>
       <c r="Y106" s="10"/>
       <c r="Z106" s="10"/>
@@ -29172,7 +29289,9 @@
       <c r="V107" s="21">
         <v>30.988598439976116</v>
       </c>
-      <c r="W107" s="10"/>
+      <c r="W107" s="21">
+        <v>29.851042676162255</v>
+      </c>
       <c r="X107" s="10"/>
       <c r="Y107" s="10"/>
       <c r="Z107" s="10"/>
@@ -29270,7 +29389,7 @@
       <c r="T108" s="13"/>
       <c r="U108" s="13"/>
       <c r="V108" s="13"/>
-      <c r="W108" s="10"/>
+      <c r="W108" s="13"/>
       <c r="X108" s="10"/>
       <c r="Y108" s="10"/>
       <c r="Z108" s="10"/>
@@ -29412,7 +29531,9 @@
       <c r="V109" s="21">
         <v>100</v>
       </c>
-      <c r="W109" s="10"/>
+      <c r="W109" s="21">
+        <v>100</v>
+      </c>
       <c r="X109" s="10"/>
       <c r="Y109" s="10"/>
       <c r="Z109" s="10"/>
@@ -29510,6 +29631,7 @@
       <c r="T110" s="16"/>
       <c r="U110" s="16"/>
       <c r="V110" s="16"/>
+      <c r="W110" s="16"/>
     </row>
     <row r="111" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
@@ -29536,6 +29658,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12"/>
@@ -29560,7 +29683,7 @@
       <c r="T112" s="13"/>
       <c r="U112" s="13"/>
       <c r="V112" s="13"/>
-      <c r="W112" s="10"/>
+      <c r="W112" s="13"/>
       <c r="X112" s="10"/>
       <c r="Y112" s="10"/>
       <c r="Z112" s="10"/>
@@ -29658,7 +29781,7 @@
       <c r="T113" s="13"/>
       <c r="U113" s="13"/>
       <c r="V113" s="13"/>
-      <c r="W113" s="10"/>
+      <c r="W113" s="13"/>
       <c r="X113" s="10"/>
       <c r="Y113" s="10"/>
       <c r="Z113" s="10"/>
@@ -29758,6 +29881,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -29784,10 +29908,11 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -29810,6 +29935,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
@@ -29834,6 +29960,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -29860,10 +29987,11 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -29886,6 +30014,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -29912,6 +30041,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
@@ -29936,6 +30066,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
@@ -29962,6 +30093,7 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
+      <c r="W122" s="6"/>
     </row>
     <row r="123" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
@@ -30029,6 +30161,9 @@
       </c>
       <c r="V123" s="18">
         <v>2020</v>
+      </c>
+      <c r="W123" s="18">
+        <v>2021</v>
       </c>
     </row>
     <row r="124" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30054,6 +30189,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
@@ -30122,7 +30258,9 @@
       <c r="V125" s="21">
         <v>68.753711581089007</v>
       </c>
-      <c r="W125" s="10"/>
+      <c r="W125" s="21">
+        <v>69.514947764189955</v>
+      </c>
       <c r="X125" s="10"/>
       <c r="Y125" s="10"/>
       <c r="Z125" s="10"/>
@@ -30264,7 +30402,9 @@
       <c r="V126" s="21">
         <v>31.246288418910989</v>
       </c>
-      <c r="W126" s="10"/>
+      <c r="W126" s="21">
+        <v>30.485052235810052</v>
+      </c>
       <c r="X126" s="10"/>
       <c r="Y126" s="10"/>
       <c r="Z126" s="10"/>
@@ -30362,7 +30502,7 @@
       <c r="T127" s="13"/>
       <c r="U127" s="13"/>
       <c r="V127" s="13"/>
-      <c r="W127" s="10"/>
+      <c r="W127" s="13"/>
       <c r="X127" s="10"/>
       <c r="Y127" s="10"/>
       <c r="Z127" s="10"/>
@@ -30504,7 +30644,9 @@
       <c r="V128" s="21">
         <v>100</v>
       </c>
-      <c r="W128" s="10"/>
+      <c r="W128" s="21">
+        <v>100</v>
+      </c>
       <c r="X128" s="10"/>
       <c r="Y128" s="10"/>
       <c r="Z128" s="10"/>
@@ -30579,7 +30721,7 @@
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
     </row>
-    <row r="129" spans="1:22" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -30602,8 +30744,9 @@
       <c r="T129" s="16"/>
       <c r="U129" s="16"/>
       <c r="V129" s="16"/>
+      <c r="W129" s="16"/>
     </row>
-    <row r="130" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
@@ -30628,6 +30771,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -30635,9 +30779,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="21" man="1"/>
-    <brk id="76" max="21" man="1"/>
-    <brk id="94" max="21" man="1"/>
+    <brk id="38" max="22" man="1"/>
+    <brk id="76" max="22" man="1"/>
+    <brk id="94" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C72191-07E1-47AE-918C-A59E86A95865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="2" r:id="rId1"/>
@@ -600,19 +601,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -752,10 +753,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23577,7 +23578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23586,7 +23587,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="63" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23608,7 +23609,7 @@
     </row>
     <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23621,7 +23622,7 @@
     </row>
     <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23842,10 +23843,10 @@
         <v>490644.47949263116</v>
       </c>
       <c r="V12" s="9">
-        <v>493604.14745727892</v>
+        <v>497954.64422069967</v>
       </c>
       <c r="W12" s="9">
-        <v>553839.6052477964</v>
+        <v>561080.29790566524</v>
       </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
@@ -23986,10 +23987,10 @@
         <v>288223.12631661375</v>
       </c>
       <c r="V13" s="9">
-        <v>221645.99425728689</v>
+        <v>221538.87678697714</v>
       </c>
       <c r="W13" s="9">
-        <v>235679.7637872053</v>
+        <v>235746.53919131932</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
@@ -24228,10 +24229,10 @@
         <v>778867.60580924491</v>
       </c>
       <c r="V15" s="15">
-        <v>715250.14171456581</v>
+        <v>719493.52100767684</v>
       </c>
       <c r="W15" s="15">
-        <v>789519.36903500173</v>
+        <v>796826.8370969845</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
@@ -24611,7 +24612,7 @@
     </row>
     <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -24690,7 +24691,7 @@
     </row>
     <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24955,10 +24956,10 @@
         <v>479792.52538089652</v>
       </c>
       <c r="V31" s="9">
-        <v>469975.21199166978</v>
+        <v>474117.44955022814</v>
       </c>
       <c r="W31" s="9">
-        <v>513039.20251205523</v>
+        <v>519455.29104970483</v>
       </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
@@ -25099,10 +25100,10 @@
         <v>286296.49065733829</v>
       </c>
       <c r="V32" s="9">
-        <v>213588.19307246991</v>
+        <v>213492.40782282792</v>
       </c>
       <c r="W32" s="9">
-        <v>224987.96864025216</v>
+        <v>225047.72990520392</v>
       </c>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
@@ -25341,10 +25342,10 @@
         <v>766089.01603823481</v>
       </c>
       <c r="V34" s="15">
-        <v>683563.40506413975</v>
+        <v>687609.857373056</v>
       </c>
       <c r="W34" s="15">
-        <v>738027.17115230742</v>
+        <v>744503.0209549088</v>
       </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
@@ -25724,7 +25725,7 @@
     </row>
     <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25803,7 +25804,7 @@
     </row>
     <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -26063,10 +26064,10 @@
         <v>7.4628527352389824</v>
       </c>
       <c r="U50" s="21">
-        <v>0.60322047599686357</v>
+        <v>1.4899107263222078</v>
       </c>
       <c r="V50" s="21">
-        <v>12.203191180789432</v>
+        <v>12.676988640954917</v>
       </c>
       <c r="W50" s="21"/>
       <c r="X50" s="10"/>
@@ -26200,10 +26201,10 @@
         <v>4.7946821298932178</v>
       </c>
       <c r="U51" s="21">
-        <v>-23.099163800683968</v>
+        <v>-23.136328573573167</v>
       </c>
       <c r="V51" s="21">
-        <v>6.3316143280387962</v>
+        <v>6.4131689256525846</v>
       </c>
       <c r="W51" s="21"/>
       <c r="X51" s="10"/>
@@ -26430,10 +26431,10 @@
         <v>6.4597967661169662</v>
       </c>
       <c r="U53" s="21">
-        <v>-8.1679432576452342</v>
+        <v>-7.6231293173219399</v>
       </c>
       <c r="V53" s="21">
-        <v>10.383671807795935</v>
+        <v>10.748299162027138</v>
       </c>
       <c r="W53" s="21"/>
       <c r="X53" s="10"/>
@@ -26799,7 +26800,7 @@
     </row>
     <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26878,7 +26879,7 @@
     </row>
     <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27138,10 +27139,10 @@
         <v>5.0860157476816568</v>
       </c>
       <c r="U69" s="21">
-        <v>-2.046158051635544</v>
+        <v>-1.1828187248567588</v>
       </c>
       <c r="V69" s="21">
-        <v>9.1630344370478696</v>
+        <v>9.5625760120169616</v>
       </c>
       <c r="W69" s="21"/>
       <c r="X69" s="10"/>
@@ -27275,10 +27276,10 @@
         <v>4.0941791061625707</v>
       </c>
       <c r="U70" s="21">
-        <v>-25.396153972383573</v>
+        <v>-25.429610634538975</v>
       </c>
       <c r="V70" s="21">
-        <v>5.3372686026302603</v>
+        <v>5.4125213164327022</v>
       </c>
       <c r="W70" s="21"/>
       <c r="X70" s="10"/>
@@ -27505,10 +27506,10 @@
         <v>4.7131506611401761</v>
       </c>
       <c r="U72" s="21">
-        <v>-10.772326615628742</v>
+        <v>-10.244130515149166</v>
       </c>
       <c r="V72" s="21">
-        <v>7.9676246101935817</v>
+        <v>8.2740471172428158</v>
       </c>
       <c r="W72" s="21"/>
       <c r="X72" s="10"/>
@@ -27848,7 +27849,7 @@
     </row>
     <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -27927,7 +27928,7 @@
     </row>
     <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28195,7 +28196,7 @@
         <v>105.02769824082296</v>
       </c>
       <c r="W87" s="21">
-        <v>107.95268715060473</v>
+        <v>108.01320297880601</v>
       </c>
       <c r="X87" s="10"/>
       <c r="Y87" s="10"/>
@@ -28332,10 +28333,10 @@
         <v>100.67295119645088</v>
       </c>
       <c r="V88" s="21">
-        <v>103.7725873649219</v>
+        <v>103.76897194902912</v>
       </c>
       <c r="W88" s="21">
-        <v>104.7521630652388</v>
+        <v>104.75401786573097</v>
       </c>
       <c r="X88" s="10"/>
       <c r="Y88" s="10"/>
@@ -28566,10 +28567,10 @@
         <v>101.6680293678003</v>
       </c>
       <c r="V90" s="21">
-        <v>104.63552267656178</v>
+        <v>104.636882862097</v>
       </c>
       <c r="W90" s="21">
-        <v>106.97700571136124</v>
+        <v>107.02801931884231</v>
       </c>
       <c r="X90" s="10"/>
       <c r="Y90" s="10"/>
@@ -28799,7 +28800,7 @@
     </row>
     <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28878,7 +28879,7 @@
     </row>
     <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29143,10 +29144,10 @@
         <v>62.994593154615877</v>
       </c>
       <c r="V106" s="21">
-        <v>69.011401560023884</v>
+        <v>69.20905187906294</v>
       </c>
       <c r="W106" s="21">
-        <v>70.148957323837749</v>
+        <v>70.414332422563007</v>
       </c>
       <c r="X106" s="10"/>
       <c r="Y106" s="10"/>
@@ -29287,10 +29288,10 @@
         <v>37.005406845384123</v>
       </c>
       <c r="V107" s="21">
-        <v>30.988598439976116</v>
+        <v>30.790948120937056</v>
       </c>
       <c r="W107" s="21">
-        <v>29.851042676162255</v>
+        <v>29.585667577437004</v>
       </c>
       <c r="X107" s="10"/>
       <c r="Y107" s="10"/>
@@ -29912,7 +29913,7 @@
     </row>
     <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -29991,7 +29992,7 @@
     </row>
     <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30256,10 +30257,10 @@
         <v>62.628821890973377</v>
       </c>
       <c r="V125" s="21">
-        <v>68.753711581089007</v>
+        <v>68.951520177669636</v>
       </c>
       <c r="W125" s="21">
-        <v>69.514947764189955</v>
+        <v>69.772086402476248</v>
       </c>
       <c r="X125" s="10"/>
       <c r="Y125" s="10"/>
@@ -30400,10 +30401,10 @@
         <v>37.371178109026623</v>
       </c>
       <c r="V126" s="21">
-        <v>31.246288418910989</v>
+        <v>31.048479822330371</v>
       </c>
       <c r="W126" s="21">
-        <v>30.485052235810052</v>
+        <v>30.227913597523742</v>
       </c>
       <c r="X126" s="10"/>
       <c r="Y126" s="10"/>

--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C72191-07E1-47AE-918C-A59E86A95865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0850645F-1F00-41CC-BAE1-E8380305D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="4875" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$W$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$X$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -601,13 +601,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -615,10 +618,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -712,45 +715,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -772,7 +775,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15139,7 +15142,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -15253,7 +15256,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15962,7 +15965,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15985,7 +15988,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -16014,7 +16017,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -16077,7 +16080,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16106,7 +16109,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16137,7 +16140,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18531,7 +18534,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18619,7 +18622,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18640,7 +18643,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18657,7 +18660,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18714,7 +18717,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18755,7 +18758,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18768,7 +18771,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18781,7 +18784,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18828,7 +18831,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18857,7 +18860,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23274,7 +23277,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23585,52 +23588,52 @@
   <dimension ref="A1:CR130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="63" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" style="1" customWidth="1"/>
-    <col min="2" max="23" width="12.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.5546875" style="11"/>
+    <col min="1" max="1" width="46.85546875" style="1" customWidth="1"/>
+    <col min="2" max="24" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23654,8 +23657,9 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>5</v>
@@ -23681,8 +23685,9 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
     </row>
-    <row r="10" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -23752,8 +23757,11 @@
       <c r="W10" s="7">
         <v>2021</v>
       </c>
+      <c r="X10" s="7">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -23777,8 +23785,9 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23848,7 +23857,9 @@
       <c r="W12" s="9">
         <v>561080.29790566524</v>
       </c>
-      <c r="X12" s="10"/>
+      <c r="X12" s="9">
+        <v>628803.1356592396</v>
+      </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -23922,7 +23933,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -23992,7 +24003,9 @@
       <c r="W13" s="9">
         <v>235746.53919131932</v>
       </c>
-      <c r="X13" s="10"/>
+      <c r="X13" s="9">
+        <v>257690.35426440602</v>
+      </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -24066,7 +24079,7 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -24090,7 +24103,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="10"/>
+      <c r="X14" s="13"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -24164,7 +24177,7 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
@@ -24234,7 +24247,9 @@
       <c r="W15" s="15">
         <v>796826.8370969845</v>
       </c>
-      <c r="X15" s="10"/>
+      <c r="X15" s="15">
+        <v>886493.48992364563</v>
+      </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -24308,7 +24323,7 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -24332,8 +24347,9 @@
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
@@ -24359,8 +24375,9 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -24384,7 +24401,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="10"/>
+      <c r="X18" s="13"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
@@ -24458,7 +24475,7 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -24482,7 +24499,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="10"/>
+      <c r="X19" s="13"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
@@ -24556,7 +24573,7 @@
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
     </row>
-    <row r="20" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -24582,8 +24599,9 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -24609,10 +24627,11 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -24636,8 +24655,9 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -24661,8 +24681,9 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -24688,10 +24709,11 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24715,8 +24737,9 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -24742,8 +24765,9 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -24767,8 +24791,9 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -24794,8 +24819,9 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>4</v>
       </c>
@@ -24865,8 +24891,11 @@
       <c r="W29" s="18">
         <v>2021</v>
       </c>
+      <c r="X29" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="30" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -24890,8 +24919,9 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -24961,7 +24991,9 @@
       <c r="W31" s="9">
         <v>519455.29104970483</v>
       </c>
-      <c r="X31" s="10"/>
+      <c r="X31" s="9">
+        <v>556941.95143574558</v>
+      </c>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
@@ -25035,7 +25067,7 @@
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -25105,7 +25137,9 @@
       <c r="W32" s="9">
         <v>225047.72990520392</v>
       </c>
-      <c r="X32" s="10"/>
+      <c r="X32" s="9">
+        <v>244147.10800225963</v>
+      </c>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
@@ -25179,7 +25213,7 @@
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -25203,7 +25237,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="10"/>
+      <c r="X33" s="13"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
@@ -25277,7 +25311,7 @@
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
     </row>
-    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>1</v>
       </c>
@@ -25347,7 +25381,9 @@
       <c r="W34" s="15">
         <v>744503.0209549088</v>
       </c>
-      <c r="X34" s="10"/>
+      <c r="X34" s="15">
+        <v>801089.05943800521</v>
+      </c>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
@@ -25421,7 +25457,7 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -25445,8 +25481,9 @@
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
     </row>
-    <row r="36" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
@@ -25472,8 +25509,9 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -25497,7 +25535,7 @@
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
-      <c r="X37" s="10"/>
+      <c r="X37" s="13"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
@@ -25571,7 +25609,7 @@
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -25595,7 +25633,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
-      <c r="X38" s="10"/>
+      <c r="X38" s="13"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
@@ -25669,7 +25707,7 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -25695,8 +25733,9 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -25722,10 +25761,11 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25749,8 +25789,9 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -25774,8 +25815,9 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -25801,10 +25843,11 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -25828,8 +25871,9 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -25855,8 +25899,9 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -25880,8 +25925,9 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="19" t="s">
         <v>5</v>
@@ -25907,8 +25953,9 @@
       <c r="U47" s="19"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
     </row>
-    <row r="48" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>4</v>
       </c>
@@ -25975,9 +26022,12 @@
       <c r="V48" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="W48" s="20"/>
+      <c r="W48" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="X48" s="20"/>
     </row>
-    <row r="49" spans="1:91" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -26001,8 +26051,9 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -26069,8 +26120,10 @@
       <c r="V50" s="21">
         <v>12.676988640954917</v>
       </c>
-      <c r="W50" s="21"/>
-      <c r="X50" s="10"/>
+      <c r="W50" s="21">
+        <v>12.070079453219478</v>
+      </c>
+      <c r="X50" s="21"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
@@ -26139,7 +26192,7 @@
       <c r="CL50" s="10"/>
       <c r="CM50" s="10"/>
     </row>
-    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -26206,8 +26259,10 @@
       <c r="V51" s="21">
         <v>6.4131689256525846</v>
       </c>
-      <c r="W51" s="21"/>
-      <c r="X51" s="10"/>
+      <c r="W51" s="21">
+        <v>9.3082236321943412</v>
+      </c>
+      <c r="X51" s="21"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
@@ -26276,7 +26331,7 @@
       <c r="CL51" s="10"/>
       <c r="CM51" s="10"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -26300,7 +26355,7 @@
       <c r="U52" s="13"/>
       <c r="V52" s="13"/>
       <c r="W52" s="13"/>
-      <c r="X52" s="10"/>
+      <c r="X52" s="13"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
@@ -26369,7 +26424,7 @@
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
     </row>
-    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>1</v>
       </c>
@@ -26436,8 +26491,10 @@
       <c r="V53" s="21">
         <v>10.748299162027138</v>
       </c>
-      <c r="W53" s="21"/>
-      <c r="X53" s="10"/>
+      <c r="W53" s="21">
+        <v>11.252965971042912</v>
+      </c>
+      <c r="X53" s="21"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
@@ -26506,7 +26563,7 @@
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
     </row>
-    <row r="54" spans="1:91" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -26530,8 +26587,9 @@
       <c r="U54" s="16"/>
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
     </row>
-    <row r="55" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
@@ -26557,8 +26615,9 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -26582,7 +26641,7 @@
       <c r="U56" s="13"/>
       <c r="V56" s="13"/>
       <c r="W56" s="13"/>
-      <c r="X56" s="10"/>
+      <c r="X56" s="13"/>
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
@@ -26651,7 +26710,7 @@
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -26675,7 +26734,7 @@
       <c r="U57" s="13"/>
       <c r="V57" s="13"/>
       <c r="W57" s="13"/>
-      <c r="X57" s="10"/>
+      <c r="X57" s="13"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
@@ -26744,7 +26803,7 @@
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
     </row>
-    <row r="58" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -26770,8 +26829,9 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -26797,10 +26857,11 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26824,8 +26885,9 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -26849,8 +26911,9 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -26876,10 +26939,11 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -26903,8 +26967,9 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
@@ -26930,8 +26995,9 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -26955,8 +27021,9 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="19" t="s">
         <v>5</v>
@@ -26982,8 +27049,9 @@
       <c r="U66" s="19"/>
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
     </row>
-    <row r="67" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>4</v>
       </c>
@@ -27050,9 +27118,12 @@
       <c r="V67" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="W67" s="7"/>
+      <c r="W67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="X67" s="7"/>
     </row>
-    <row r="68" spans="1:92" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -27076,8 +27147,9 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -27144,8 +27216,10 @@
       <c r="V69" s="21">
         <v>9.5625760120169616</v>
       </c>
-      <c r="W69" s="21"/>
-      <c r="X69" s="10"/>
+      <c r="W69" s="21">
+        <v>7.2165325932648443</v>
+      </c>
+      <c r="X69" s="21"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
@@ -27214,7 +27288,7 @@
       <c r="CL69" s="10"/>
       <c r="CM69" s="10"/>
     </row>
-    <row r="70" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -27281,8 +27355,10 @@
       <c r="V70" s="21">
         <v>5.4125213164327022</v>
       </c>
-      <c r="W70" s="21"/>
-      <c r="X70" s="10"/>
+      <c r="W70" s="21">
+        <v>8.4868121554040528</v>
+      </c>
+      <c r="X70" s="21"/>
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
@@ -27351,7 +27427,7 @@
       <c r="CL70" s="10"/>
       <c r="CM70" s="10"/>
     </row>
-    <row r="71" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -27375,7 +27451,7 @@
       <c r="U71" s="13"/>
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
-      <c r="X71" s="10"/>
+      <c r="X71" s="13"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
@@ -27444,7 +27520,7 @@
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
     </row>
-    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>1</v>
       </c>
@@ -27511,8 +27587,10 @@
       <c r="V72" s="21">
         <v>8.2740471172428158</v>
       </c>
-      <c r="W72" s="21"/>
-      <c r="X72" s="10"/>
+      <c r="W72" s="21">
+        <v>7.6005116017552723</v>
+      </c>
+      <c r="X72" s="21"/>
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
@@ -27581,7 +27659,7 @@
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
     </row>
-    <row r="73" spans="1:92" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:92" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -27605,8 +27683,9 @@
       <c r="U73" s="16"/>
       <c r="V73" s="16"/>
       <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
     </row>
-    <row r="74" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
@@ -27632,8 +27711,9 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -27657,7 +27737,7 @@
       <c r="U75" s="13"/>
       <c r="V75" s="13"/>
       <c r="W75" s="13"/>
-      <c r="X75" s="10"/>
+      <c r="X75" s="13"/>
       <c r="Y75" s="10"/>
       <c r="Z75" s="10"/>
       <c r="AA75" s="10"/>
@@ -27726,7 +27806,7 @@
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
     </row>
-    <row r="76" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -27750,7 +27830,7 @@
       <c r="U76" s="13"/>
       <c r="V76" s="13"/>
       <c r="W76" s="13"/>
-      <c r="X76" s="10"/>
+      <c r="X76" s="13"/>
       <c r="Y76" s="10"/>
       <c r="Z76" s="10"/>
       <c r="AA76" s="10"/>
@@ -27820,7 +27900,7 @@
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
     </row>
-    <row r="77" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -27846,10 +27926,11 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -27873,8 +27954,9 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -27898,8 +27980,9 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -27925,10 +28008,11 @@
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -27952,8 +28036,9 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -27979,8 +28064,9 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -28004,8 +28090,9 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="6" t="s">
         <v>5</v>
@@ -28031,8 +28118,9 @@
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
     </row>
-    <row r="85" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>4</v>
       </c>
@@ -28102,8 +28190,11 @@
       <c r="W85" s="18">
         <v>2021</v>
       </c>
+      <c r="X85" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="86" spans="1:92" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28127,8 +28218,9 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -28198,7 +28290,9 @@
       <c r="W87" s="21">
         <v>108.01320297880601</v>
       </c>
-      <c r="X87" s="10"/>
+      <c r="X87" s="21">
+        <v>112.90281402545497</v>
+      </c>
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
       <c r="AA87" s="10"/>
@@ -28268,7 +28362,7 @@
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
     </row>
-    <row r="88" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -28338,7 +28432,9 @@
       <c r="W88" s="21">
         <v>104.75401786573097</v>
       </c>
-      <c r="X88" s="10"/>
+      <c r="X88" s="21">
+        <v>105.54716636742674</v>
+      </c>
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
       <c r="AA88" s="10"/>
@@ -28408,7 +28504,7 @@
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
     </row>
-    <row r="89" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -28432,7 +28528,7 @@
       <c r="U89" s="13"/>
       <c r="V89" s="13"/>
       <c r="W89" s="13"/>
-      <c r="X89" s="10"/>
+      <c r="X89" s="13"/>
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
       <c r="AA89" s="10"/>
@@ -28502,7 +28598,7 @@
       <c r="CM89" s="10"/>
       <c r="CN89" s="10"/>
     </row>
-    <row r="90" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>1</v>
       </c>
@@ -28572,7 +28668,9 @@
       <c r="W90" s="21">
         <v>107.02801931884231</v>
       </c>
-      <c r="X90" s="10"/>
+      <c r="X90" s="21">
+        <v>110.66104067699476</v>
+      </c>
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
       <c r="AA90" s="10"/>
@@ -28642,7 +28740,7 @@
       <c r="CM90" s="10"/>
       <c r="CN90" s="10"/>
     </row>
-    <row r="91" spans="1:92" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:92" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -28666,8 +28764,9 @@
       <c r="U91" s="16"/>
       <c r="V91" s="16"/>
       <c r="W91" s="16"/>
+      <c r="X91" s="16"/>
     </row>
-    <row r="92" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
@@ -28693,8 +28792,9 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28718,8 +28818,9 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28743,8 +28844,9 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -28770,8 +28872,9 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -28797,10 +28900,11 @@
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28824,8 +28928,9 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -28849,8 +28954,9 @@
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -28876,10 +28982,11 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -28903,8 +29010,9 @@
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -28930,8 +29038,9 @@
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -28955,8 +29064,9 @@
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="6" t="s">
         <v>5</v>
@@ -28982,8 +29092,9 @@
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
     </row>
-    <row r="104" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>4</v>
       </c>
@@ -29053,8 +29164,11 @@
       <c r="W104" s="18">
         <v>2021</v>
       </c>
+      <c r="X104" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="105" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -29078,8 +29192,9 @@
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -29149,7 +29264,9 @@
       <c r="W106" s="21">
         <v>70.414332422563007</v>
       </c>
-      <c r="X106" s="10"/>
+      <c r="X106" s="21">
+        <v>70.931500660360058</v>
+      </c>
       <c r="Y106" s="10"/>
       <c r="Z106" s="10"/>
       <c r="AA106" s="10"/>
@@ -29223,7 +29340,7 @@
       <c r="CQ106" s="10"/>
       <c r="CR106" s="10"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -29293,7 +29410,9 @@
       <c r="W107" s="21">
         <v>29.585667577437004</v>
       </c>
-      <c r="X107" s="10"/>
+      <c r="X107" s="21">
+        <v>29.068499339639942</v>
+      </c>
       <c r="Y107" s="10"/>
       <c r="Z107" s="10"/>
       <c r="AA107" s="10"/>
@@ -29367,7 +29486,7 @@
       <c r="CQ107" s="10"/>
       <c r="CR107" s="10"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -29391,7 +29510,7 @@
       <c r="U108" s="13"/>
       <c r="V108" s="13"/>
       <c r="W108" s="13"/>
-      <c r="X108" s="10"/>
+      <c r="X108" s="13"/>
       <c r="Y108" s="10"/>
       <c r="Z108" s="10"/>
       <c r="AA108" s="10"/>
@@ -29465,7 +29584,7 @@
       <c r="CQ108" s="10"/>
       <c r="CR108" s="10"/>
     </row>
-    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>1</v>
       </c>
@@ -29535,7 +29654,9 @@
       <c r="W109" s="21">
         <v>100</v>
       </c>
-      <c r="X109" s="10"/>
+      <c r="X109" s="21">
+        <v>100</v>
+      </c>
       <c r="Y109" s="10"/>
       <c r="Z109" s="10"/>
       <c r="AA109" s="10"/>
@@ -29609,7 +29730,7 @@
       <c r="CQ109" s="10"/>
       <c r="CR109" s="10"/>
     </row>
-    <row r="110" spans="1:96" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -29633,8 +29754,9 @@
       <c r="U110" s="16"/>
       <c r="V110" s="16"/>
       <c r="W110" s="16"/>
+      <c r="X110" s="16"/>
     </row>
-    <row r="111" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
@@ -29660,8 +29782,9 @@
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -29685,7 +29808,7 @@
       <c r="U112" s="13"/>
       <c r="V112" s="13"/>
       <c r="W112" s="13"/>
-      <c r="X112" s="10"/>
+      <c r="X112" s="13"/>
       <c r="Y112" s="10"/>
       <c r="Z112" s="10"/>
       <c r="AA112" s="10"/>
@@ -29759,7 +29882,7 @@
       <c r="CQ112" s="10"/>
       <c r="CR112" s="10"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -29783,7 +29906,7 @@
       <c r="U113" s="13"/>
       <c r="V113" s="13"/>
       <c r="W113" s="13"/>
-      <c r="X113" s="10"/>
+      <c r="X113" s="13"/>
       <c r="Y113" s="10"/>
       <c r="Z113" s="10"/>
       <c r="AA113" s="10"/>
@@ -29857,7 +29980,7 @@
       <c r="CQ113" s="10"/>
       <c r="CR113" s="10"/>
     </row>
-    <row r="114" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -29883,8 +30006,9 @@
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
@@ -29910,10 +30034,11 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -29937,8 +30062,9 @@
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -29962,8 +30088,9 @@
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -29989,10 +30116,11 @@
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30016,8 +30144,9 @@
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -30043,8 +30172,9 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -30068,8 +30198,9 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="6" t="s">
         <v>5</v>
@@ -30095,8 +30226,9 @@
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
+      <c r="X122" s="6"/>
     </row>
-    <row r="123" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>4</v>
       </c>
@@ -30166,8 +30298,11 @@
       <c r="W123" s="18">
         <v>2021</v>
       </c>
+      <c r="X123" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="124" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -30191,8 +30326,9 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -30262,7 +30398,9 @@
       <c r="W125" s="21">
         <v>69.772086402476248</v>
       </c>
-      <c r="X125" s="10"/>
+      <c r="X125" s="21">
+        <v>69.523100443596348</v>
+      </c>
       <c r="Y125" s="10"/>
       <c r="Z125" s="10"/>
       <c r="AA125" s="10"/>
@@ -30336,7 +30474,7 @@
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -30406,7 +30544,9 @@
       <c r="W126" s="21">
         <v>30.227913597523742</v>
       </c>
-      <c r="X126" s="10"/>
+      <c r="X126" s="21">
+        <v>30.476899556403659</v>
+      </c>
       <c r="Y126" s="10"/>
       <c r="Z126" s="10"/>
       <c r="AA126" s="10"/>
@@ -30480,7 +30620,7 @@
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -30504,7 +30644,7 @@
       <c r="U127" s="13"/>
       <c r="V127" s="13"/>
       <c r="W127" s="13"/>
-      <c r="X127" s="10"/>
+      <c r="X127" s="13"/>
       <c r="Y127" s="10"/>
       <c r="Z127" s="10"/>
       <c r="AA127" s="10"/>
@@ -30578,7 +30718,7 @@
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
     </row>
-    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>1</v>
       </c>
@@ -30648,7 +30788,9 @@
       <c r="W128" s="21">
         <v>100</v>
       </c>
-      <c r="X128" s="10"/>
+      <c r="X128" s="21">
+        <v>100</v>
+      </c>
       <c r="Y128" s="10"/>
       <c r="Z128" s="10"/>
       <c r="AA128" s="10"/>
@@ -30722,7 +30864,7 @@
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
     </row>
-    <row r="129" spans="1:23" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -30746,8 +30888,9 @@
       <c r="U129" s="16"/>
       <c r="V129" s="16"/>
       <c r="W129" s="16"/>
+      <c r="X129" s="16"/>
     </row>
-    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
@@ -30773,6 +30916,7 @@
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -30780,9 +30924,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="22" man="1"/>
-    <brk id="76" max="22" man="1"/>
-    <brk id="94" max="22" man="1"/>
+    <brk id="38" max="23" man="1"/>
+    <brk id="76" max="23" man="1"/>
+    <brk id="94" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0850645F-1F00-41CC-BAE1-E8380305D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0679DDAE-1B90-4C2B-BA07-D230C3E9FE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="4875" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="2" r:id="rId1"/>
@@ -604,13 +604,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23590,7 +23590,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="63" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
+      <selection pane="topRight" activeCell="V69" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23612,7 +23612,7 @@
     </row>
     <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23625,7 +23625,7 @@
     </row>
     <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23855,10 +23855,10 @@
         <v>497954.64422069967</v>
       </c>
       <c r="W12" s="9">
-        <v>561080.29790566524</v>
+        <v>560206.49725925492</v>
       </c>
       <c r="X12" s="9">
-        <v>628803.1356592396</v>
+        <v>624313.92708908522</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -24001,10 +24001,10 @@
         <v>221538.87678697714</v>
       </c>
       <c r="W13" s="9">
-        <v>235746.53919131932</v>
+        <v>236265.71309677052</v>
       </c>
       <c r="X13" s="9">
-        <v>257690.35426440602</v>
+        <v>259658.39913313815</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -24245,10 +24245,10 @@
         <v>719493.52100767684</v>
       </c>
       <c r="W15" s="15">
-        <v>796826.8370969845</v>
+        <v>796472.21035602549</v>
       </c>
       <c r="X15" s="15">
-        <v>886493.48992364563</v>
+        <v>883972.32622222335</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -24631,7 +24631,7 @@
     </row>
     <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -24713,7 +24713,7 @@
     </row>
     <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24989,10 +24989,10 @@
         <v>474117.44955022814</v>
       </c>
       <c r="W31" s="9">
-        <v>519455.29104970483</v>
+        <v>518646.31527423253</v>
       </c>
       <c r="X31" s="9">
-        <v>556941.95143574558</v>
+        <v>553347.01511772454</v>
       </c>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
@@ -25135,10 +25135,10 @@
         <v>213492.40782282792</v>
       </c>
       <c r="W32" s="9">
-        <v>225047.72990520392</v>
+        <v>225512.36938932815</v>
       </c>
       <c r="X32" s="9">
-        <v>244147.10800225963</v>
+        <v>245917.1472151198</v>
       </c>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
@@ -25379,10 +25379,10 @@
         <v>687609.857373056</v>
       </c>
       <c r="W34" s="15">
-        <v>744503.0209549088</v>
+        <v>744158.68466356071</v>
       </c>
       <c r="X34" s="15">
-        <v>801089.05943800521</v>
+        <v>799264.16233284434</v>
       </c>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
@@ -25765,7 +25765,7 @@
     </row>
     <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25847,7 +25847,7 @@
     </row>
     <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -26118,10 +26118,10 @@
         <v>1.4899107263222078</v>
       </c>
       <c r="V50" s="21">
-        <v>12.676988640954917</v>
+        <v>12.501510681957711</v>
       </c>
       <c r="W50" s="21">
-        <v>12.070079453219478</v>
+        <v>11.44353557901745</v>
       </c>
       <c r="X50" s="21"/>
       <c r="Y50" s="10"/>
@@ -26257,10 +26257,10 @@
         <v>-23.136328573573167</v>
       </c>
       <c r="V51" s="21">
-        <v>6.4131689256525846</v>
+        <v>6.6475178187140926</v>
       </c>
       <c r="W51" s="21">
-        <v>9.3082236321943412</v>
+        <v>9.9010075265497193</v>
       </c>
       <c r="X51" s="21"/>
       <c r="Y51" s="10"/>
@@ -26489,10 +26489,10 @@
         <v>-7.6231293173219399</v>
       </c>
       <c r="V53" s="21">
-        <v>10.748299162027138</v>
+        <v>10.699010776432999</v>
       </c>
       <c r="W53" s="21">
-        <v>11.252965971042912</v>
+        <v>10.985959676745665</v>
       </c>
       <c r="X53" s="21"/>
       <c r="Y53" s="10"/>
@@ -26861,7 +26861,7 @@
     </row>
     <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26943,7 +26943,7 @@
     </row>
     <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27214,10 +27214,10 @@
         <v>-1.1828187248567588</v>
       </c>
       <c r="V69" s="21">
-        <v>9.5625760120169616</v>
+        <v>9.391948295985884</v>
       </c>
       <c r="W69" s="21">
-        <v>7.2165325932648443</v>
+        <v>6.6906288199780448</v>
       </c>
       <c r="X69" s="21"/>
       <c r="Y69" s="10"/>
@@ -27353,10 +27353,10 @@
         <v>-25.429610634538975</v>
       </c>
       <c r="V70" s="21">
-        <v>5.4125213164327022</v>
+        <v>5.6301587906935282</v>
       </c>
       <c r="W70" s="21">
-        <v>8.4868121554040528</v>
+        <v>9.048185641012239</v>
       </c>
       <c r="X70" s="21"/>
       <c r="Y70" s="10"/>
@@ -27585,10 +27585,10 @@
         <v>-10.244130515149166</v>
       </c>
       <c r="V72" s="21">
-        <v>8.2740471172428158</v>
+        <v>8.2239698404766699</v>
       </c>
       <c r="W72" s="21">
-        <v>7.6005116017552723</v>
+        <v>7.4050708276282649</v>
       </c>
       <c r="X72" s="21"/>
       <c r="Y72" s="10"/>
@@ -27930,7 +27930,7 @@
     </row>
     <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -28012,7 +28012,7 @@
     </row>
     <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28291,7 +28291,7 @@
         <v>108.01320297880601</v>
       </c>
       <c r="X87" s="21">
-        <v>112.90281402545497</v>
+        <v>112.82502842384766</v>
       </c>
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
@@ -28430,10 +28430,10 @@
         <v>103.76897194902912</v>
       </c>
       <c r="W88" s="21">
-        <v>104.75401786573097</v>
+        <v>104.76840527043447</v>
       </c>
       <c r="X88" s="21">
-        <v>105.54716636742674</v>
+        <v>105.58775671954179</v>
       </c>
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
@@ -28666,10 +28666,10 @@
         <v>104.636882862097</v>
       </c>
       <c r="W90" s="21">
-        <v>107.02801931884231</v>
+        <v>107.02988848623276</v>
       </c>
       <c r="X90" s="21">
-        <v>110.66104067699476</v>
+        <v>110.59826874285692</v>
       </c>
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
@@ -28904,7 +28904,7 @@
     </row>
     <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28986,7 +28986,7 @@
     </row>
     <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29262,10 +29262,10 @@
         <v>69.20905187906294</v>
       </c>
       <c r="W106" s="21">
-        <v>70.414332422563007</v>
+        <v>70.335975314046536</v>
       </c>
       <c r="X106" s="21">
-        <v>70.931500660360058</v>
+        <v>70.625958366499574</v>
       </c>
       <c r="Y106" s="10"/>
       <c r="Z106" s="10"/>
@@ -29408,10 +29408,10 @@
         <v>30.790948120937056</v>
       </c>
       <c r="W107" s="21">
-        <v>29.585667577437004</v>
+        <v>29.664024685953454</v>
       </c>
       <c r="X107" s="21">
-        <v>29.068499339639942</v>
+        <v>29.374041633500436</v>
       </c>
       <c r="Y107" s="10"/>
       <c r="Z107" s="10"/>
@@ -30038,7 +30038,7 @@
     </row>
     <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -30120,7 +30120,7 @@
     </row>
     <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30396,10 +30396,10 @@
         <v>68.951520177669636</v>
       </c>
       <c r="W125" s="21">
-        <v>69.772086402476248</v>
+        <v>69.695661149035175</v>
       </c>
       <c r="X125" s="21">
-        <v>69.523100443596348</v>
+        <v>69.232056333246376</v>
       </c>
       <c r="Y125" s="10"/>
       <c r="Z125" s="10"/>
@@ -30542,10 +30542,10 @@
         <v>31.048479822330371</v>
       </c>
       <c r="W126" s="21">
-        <v>30.227913597523742</v>
+        <v>30.304338850964811</v>
       </c>
       <c r="X126" s="21">
-        <v>30.476899556403659</v>
+        <v>30.767943666753627</v>
       </c>
       <c r="Y126" s="10"/>
       <c r="Z126" s="10"/>

--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0679DDAE-1B90-4C2B-BA07-D230C3E9FE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88303A5-9B82-4E1A-9F1A-17EB85E1A85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$X$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$Y$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -604,13 +604,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23590,14 +23593,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="63" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V69" sqref="V1:X1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.85546875" style="1" customWidth="1"/>
-    <col min="2" max="24" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.5703125" style="11"/>
+    <col min="2" max="25" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.5703125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23612,7 +23615,7 @@
     </row>
     <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23625,7 +23628,7 @@
     </row>
     <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23658,6 +23661,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23686,6 +23690,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -23759,6 +23764,9 @@
       </c>
       <c r="X10" s="7">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23786,6 +23794,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -23860,7 +23869,9 @@
       <c r="X12" s="9">
         <v>624313.92708908522</v>
       </c>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="9">
+        <v>684295.840738005</v>
+      </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -24006,7 +24017,9 @@
       <c r="X13" s="9">
         <v>259658.39913313815</v>
       </c>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="9">
+        <v>295929.64037118264</v>
+      </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -24104,7 +24117,7 @@
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="13"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -24250,7 +24263,9 @@
       <c r="X15" s="15">
         <v>883972.32622222335</v>
       </c>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="15">
+        <v>980225.48110918771</v>
+      </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -24348,6 +24363,7 @@
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
     </row>
     <row r="17" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -24376,6 +24392,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
@@ -24402,7 +24419,7 @@
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="13"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -24500,7 +24517,7 @@
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="13"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -24600,6 +24617,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -24628,10 +24646,11 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -24656,6 +24675,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -24682,6 +24702,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -24710,10 +24731,11 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24738,6 +24760,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -24766,6 +24789,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -24792,6 +24816,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -24820,6 +24845,7 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
     </row>
     <row r="29" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -24893,6 +24919,9 @@
       </c>
       <c r="X29" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y29" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24920,6 +24949,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -24994,7 +25024,9 @@
       <c r="X31" s="9">
         <v>553347.01511772454</v>
       </c>
-      <c r="Y31" s="10"/>
+      <c r="Y31" s="9">
+        <v>584150.12115954398</v>
+      </c>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -25140,7 +25172,9 @@
       <c r="X32" s="9">
         <v>245917.1472151198</v>
       </c>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="9">
+        <v>270664.75253709237</v>
+      </c>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
@@ -25238,7 +25272,7 @@
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
-      <c r="Y33" s="10"/>
+      <c r="Y33" s="13"/>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
@@ -25384,7 +25418,9 @@
       <c r="X34" s="15">
         <v>799264.16233284434</v>
       </c>
-      <c r="Y34" s="10"/>
+      <c r="Y34" s="15">
+        <v>854814.87369663641</v>
+      </c>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
@@ -25482,6 +25518,7 @@
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
     </row>
     <row r="36" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -25510,6 +25547,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
@@ -25536,7 +25574,7 @@
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
-      <c r="Y37" s="10"/>
+      <c r="Y37" s="13"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
@@ -25634,7 +25672,7 @@
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
-      <c r="Y38" s="10"/>
+      <c r="Y38" s="13"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
@@ -25734,6 +25772,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -25762,10 +25801,11 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25790,6 +25830,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -25816,6 +25857,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -25844,10 +25886,11 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -25872,6 +25915,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -25900,6 +25944,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -25926,6 +25971,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -25954,6 +26000,7 @@
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
     </row>
     <row r="48" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
@@ -26025,7 +26072,10 @@
       <c r="W48" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="X48" s="20"/>
+      <c r="X48" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="20"/>
     </row>
     <row r="49" spans="1:91" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -26052,6 +26102,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -26123,8 +26174,10 @@
       <c r="W50" s="21">
         <v>11.44353557901745</v>
       </c>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="10"/>
+      <c r="X50" s="21">
+        <v>9.6076526641957827</v>
+      </c>
+      <c r="Y50" s="21"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
@@ -26262,8 +26315,10 @@
       <c r="W51" s="21">
         <v>9.9010075265497193</v>
       </c>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="10"/>
+      <c r="X51" s="21">
+        <v>13.96883033983687</v>
+      </c>
+      <c r="Y51" s="21"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
@@ -26356,7 +26411,7 @@
       <c r="V52" s="13"/>
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
-      <c r="Y52" s="10"/>
+      <c r="Y52" s="13"/>
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
@@ -26494,8 +26549,10 @@
       <c r="W53" s="21">
         <v>10.985959676745665</v>
       </c>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="10"/>
+      <c r="X53" s="21">
+        <v>10.888706810349518</v>
+      </c>
+      <c r="Y53" s="21"/>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
@@ -26588,6 +26645,7 @@
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
     </row>
     <row r="55" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -26616,6 +26674,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
@@ -26642,7 +26701,7 @@
       <c r="V56" s="13"/>
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
-      <c r="Y56" s="10"/>
+      <c r="Y56" s="13"/>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -26735,7 +26794,7 @@
       <c r="V57" s="13"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
-      <c r="Y57" s="10"/>
+      <c r="Y57" s="13"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
@@ -26830,6 +26889,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -26858,10 +26918,11 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26886,6 +26947,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -26912,6 +26974,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -26940,10 +27003,11 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -26968,6 +27032,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -26996,6 +27061,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -27022,6 +27088,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
@@ -27050,6 +27117,7 @@
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
       <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
     </row>
     <row r="67" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
@@ -27121,7 +27189,10 @@
       <c r="W67" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="X67" s="7"/>
+      <c r="X67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y67" s="7"/>
     </row>
     <row r="68" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -27148,6 +27219,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -27219,8 +27291,10 @@
       <c r="W69" s="21">
         <v>6.6906288199780448</v>
       </c>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="10"/>
+      <c r="X69" s="21">
+        <v>5.56668875050606</v>
+      </c>
+      <c r="Y69" s="21"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
@@ -27358,8 +27432,10 @@
       <c r="W70" s="21">
         <v>9.048185641012239</v>
       </c>
-      <c r="X70" s="21"/>
-      <c r="Y70" s="10"/>
+      <c r="X70" s="21">
+        <v>10.063391513046554</v>
+      </c>
+      <c r="Y70" s="21"/>
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
@@ -27452,7 +27528,7 @@
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
       <c r="X71" s="13"/>
-      <c r="Y71" s="10"/>
+      <c r="Y71" s="13"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
@@ -27590,8 +27666,10 @@
       <c r="W72" s="21">
         <v>7.4050708276282649</v>
       </c>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="10"/>
+      <c r="X72" s="21">
+        <v>6.9502317233458797</v>
+      </c>
+      <c r="Y72" s="21"/>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
@@ -27684,6 +27762,7 @@
       <c r="V73" s="16"/>
       <c r="W73" s="16"/>
       <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
     </row>
     <row r="74" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -27712,6 +27791,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
@@ -27738,7 +27818,7 @@
       <c r="V75" s="13"/>
       <c r="W75" s="13"/>
       <c r="X75" s="13"/>
-      <c r="Y75" s="10"/>
+      <c r="Y75" s="13"/>
       <c r="Z75" s="10"/>
       <c r="AA75" s="10"/>
       <c r="AB75" s="10"/>
@@ -27831,7 +27911,7 @@
       <c r="V76" s="13"/>
       <c r="W76" s="13"/>
       <c r="X76" s="13"/>
-      <c r="Y76" s="10"/>
+      <c r="Y76" s="13"/>
       <c r="Z76" s="10"/>
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
@@ -27927,10 +28007,11 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -27955,6 +28036,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -27981,6 +28063,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -28009,10 +28092,11 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28037,6 +28121,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -28065,6 +28150,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -28091,6 +28177,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -28119,6 +28206,7 @@
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
     </row>
     <row r="85" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
@@ -28192,6 +28280,9 @@
       </c>
       <c r="X85" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y85" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="86" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28219,6 +28310,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
@@ -28293,7 +28385,9 @@
       <c r="X87" s="21">
         <v>112.82502842384766</v>
       </c>
-      <c r="Y87" s="10"/>
+      <c r="Y87" s="21">
+        <v>117.1438327154107</v>
+      </c>
       <c r="Z87" s="10"/>
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
@@ -28435,7 +28529,9 @@
       <c r="X88" s="21">
         <v>105.58775671954179</v>
       </c>
-      <c r="Y88" s="10"/>
+      <c r="Y88" s="21">
+        <v>109.33438417720384</v>
+      </c>
       <c r="Z88" s="10"/>
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
@@ -28529,7 +28625,7 @@
       <c r="V89" s="13"/>
       <c r="W89" s="13"/>
       <c r="X89" s="13"/>
-      <c r="Y89" s="10"/>
+      <c r="Y89" s="13"/>
       <c r="Z89" s="10"/>
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
@@ -28671,7 +28767,9 @@
       <c r="X90" s="21">
         <v>110.59826874285692</v>
       </c>
-      <c r="Y90" s="10"/>
+      <c r="Y90" s="21">
+        <v>114.67108391203054</v>
+      </c>
       <c r="Z90" s="10"/>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
@@ -28765,6 +28863,7 @@
       <c r="V91" s="16"/>
       <c r="W91" s="16"/>
       <c r="X91" s="16"/>
+      <c r="Y91" s="16"/>
     </row>
     <row r="92" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -28793,6 +28892,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
@@ -28819,6 +28919,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
@@ -28845,6 +28946,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -28873,6 +28975,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -28901,10 +29004,11 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28929,6 +29033,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -28955,6 +29060,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -28983,10 +29089,11 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29011,6 +29118,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -29039,6 +29147,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -29065,6 +29174,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
@@ -29093,6 +29203,7 @@
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
     </row>
     <row r="104" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
@@ -29166,6 +29277,9 @@
       </c>
       <c r="X104" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y104" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="105" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29193,6 +29307,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -29267,7 +29382,9 @@
       <c r="X106" s="21">
         <v>70.625958366499574</v>
       </c>
-      <c r="Y106" s="10"/>
+      <c r="Y106" s="21">
+        <v>69.810044109818548</v>
+      </c>
       <c r="Z106" s="10"/>
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
@@ -29413,7 +29530,9 @@
       <c r="X107" s="21">
         <v>29.374041633500436</v>
       </c>
-      <c r="Y107" s="10"/>
+      <c r="Y107" s="21">
+        <v>30.189955890181448</v>
+      </c>
       <c r="Z107" s="10"/>
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
@@ -29511,7 +29630,7 @@
       <c r="V108" s="13"/>
       <c r="W108" s="13"/>
       <c r="X108" s="13"/>
-      <c r="Y108" s="10"/>
+      <c r="Y108" s="13"/>
       <c r="Z108" s="10"/>
       <c r="AA108" s="10"/>
       <c r="AB108" s="10"/>
@@ -29657,7 +29776,9 @@
       <c r="X109" s="21">
         <v>100</v>
       </c>
-      <c r="Y109" s="10"/>
+      <c r="Y109" s="21">
+        <v>100</v>
+      </c>
       <c r="Z109" s="10"/>
       <c r="AA109" s="10"/>
       <c r="AB109" s="10"/>
@@ -29755,6 +29876,7 @@
       <c r="V110" s="16"/>
       <c r="W110" s="16"/>
       <c r="X110" s="16"/>
+      <c r="Y110" s="16"/>
     </row>
     <row r="111" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -29783,6 +29905,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
@@ -29809,7 +29932,7 @@
       <c r="V112" s="13"/>
       <c r="W112" s="13"/>
       <c r="X112" s="13"/>
-      <c r="Y112" s="10"/>
+      <c r="Y112" s="13"/>
       <c r="Z112" s="10"/>
       <c r="AA112" s="10"/>
       <c r="AB112" s="10"/>
@@ -29907,7 +30030,7 @@
       <c r="V113" s="13"/>
       <c r="W113" s="13"/>
       <c r="X113" s="13"/>
-      <c r="Y113" s="10"/>
+      <c r="Y113" s="13"/>
       <c r="Z113" s="10"/>
       <c r="AA113" s="10"/>
       <c r="AB113" s="10"/>
@@ -30007,6 +30130,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -30035,10 +30159,11 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -30063,6 +30188,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -30089,6 +30215,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -30117,10 +30244,11 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30145,6 +30273,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -30173,6 +30302,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -30199,6 +30329,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
@@ -30227,6 +30358,7 @@
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
+      <c r="Y122" s="6"/>
     </row>
     <row r="123" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
@@ -30300,6 +30432,9 @@
       </c>
       <c r="X123" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y123" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="124" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30327,6 +30462,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
@@ -30401,7 +30537,9 @@
       <c r="X125" s="21">
         <v>69.232056333246376</v>
       </c>
-      <c r="Y125" s="10"/>
+      <c r="Y125" s="21">
+        <v>68.336447941458246</v>
+      </c>
       <c r="Z125" s="10"/>
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
@@ -30547,7 +30685,9 @@
       <c r="X126" s="21">
         <v>30.767943666753627</v>
       </c>
-      <c r="Y126" s="10"/>
+      <c r="Y126" s="21">
+        <v>31.66355205854175</v>
+      </c>
       <c r="Z126" s="10"/>
       <c r="AA126" s="10"/>
       <c r="AB126" s="10"/>
@@ -30645,7 +30785,7 @@
       <c r="V127" s="13"/>
       <c r="W127" s="13"/>
       <c r="X127" s="13"/>
-      <c r="Y127" s="10"/>
+      <c r="Y127" s="13"/>
       <c r="Z127" s="10"/>
       <c r="AA127" s="10"/>
       <c r="AB127" s="10"/>
@@ -30791,7 +30931,9 @@
       <c r="X128" s="21">
         <v>100</v>
       </c>
-      <c r="Y128" s="10"/>
+      <c r="Y128" s="21">
+        <v>100</v>
+      </c>
       <c r="Z128" s="10"/>
       <c r="AA128" s="10"/>
       <c r="AB128" s="10"/>
@@ -30864,7 +31006,7 @@
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
     </row>
-    <row r="129" spans="1:24" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -30889,8 +31031,9 @@
       <c r="V129" s="16"/>
       <c r="W129" s="16"/>
       <c r="X129" s="16"/>
+      <c r="Y129" s="16"/>
     </row>
-    <row r="130" spans="1:24" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
@@ -30917,6 +31060,7 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -30924,9 +31068,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="23" man="1"/>
-    <brk id="76" max="23" man="1"/>
-    <brk id="94" max="23" man="1"/>
+    <brk id="38" max="24" man="1"/>
+    <brk id="76" max="24" man="1"/>
+    <brk id="94" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88303A5-9B82-4E1A-9F1A-17EB85E1A85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24FADC-1C79-46C5-BF38-A1F4FAA2383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="2" r:id="rId1"/>
@@ -607,13 +607,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23591,52 +23591,52 @@
   <dimension ref="A1:CR130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="63" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="1" customWidth="1"/>
-    <col min="2" max="25" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.5703125" style="11"/>
+    <col min="1" max="1" width="46.88671875" style="1" customWidth="1"/>
+    <col min="2" max="25" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.5546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23663,7 +23663,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>5</v>
@@ -23692,7 +23692,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -23796,7 +23796,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23867,10 +23867,10 @@
         <v>560206.49725925492</v>
       </c>
       <c r="X12" s="9">
-        <v>624313.92708908522</v>
+        <v>619471.76702958462</v>
       </c>
       <c r="Y12" s="9">
-        <v>684295.840738005</v>
+        <v>679032.02213813039</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -23944,7 +23944,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -24015,10 +24015,10 @@
         <v>236265.71309677052</v>
       </c>
       <c r="X13" s="9">
-        <v>259658.39913313815</v>
+        <v>260918.04546806082</v>
       </c>
       <c r="Y13" s="9">
-        <v>295929.64037118264</v>
+        <v>297612.0963240267</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -24092,7 +24092,7 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -24190,7 +24190,7 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
@@ -24261,10 +24261,10 @@
         <v>796472.21035602549</v>
       </c>
       <c r="X15" s="15">
-        <v>883972.32622222335</v>
+        <v>880389.81249764538</v>
       </c>
       <c r="Y15" s="15">
-        <v>980225.48110918771</v>
+        <v>976644.11846215709</v>
       </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -24338,7 +24338,7 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -24365,7 +24365,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
     </row>
-    <row r="17" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
@@ -24394,7 +24394,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -24492,7 +24492,7 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -24590,7 +24590,7 @@
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
     </row>
-    <row r="20" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -24619,7 +24619,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -24648,9 +24648,9 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -24677,7 +24677,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -24704,7 +24704,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -24733,9 +24733,9 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24762,7 +24762,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -24791,7 +24791,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -24818,7 +24818,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -24847,7 +24847,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>4</v>
       </c>
@@ -24924,7 +24924,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -24951,7 +24951,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -25022,10 +25022,10 @@
         <v>518646.31527423253</v>
       </c>
       <c r="X31" s="9">
-        <v>553347.01511772454</v>
+        <v>549073.26305650943</v>
       </c>
       <c r="Y31" s="9">
-        <v>584150.12115954398</v>
+        <v>579638.90998318465</v>
       </c>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
@@ -25099,7 +25099,7 @@
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
     </row>
-    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -25170,10 +25170,10 @@
         <v>225512.36938932815</v>
       </c>
       <c r="X32" s="9">
-        <v>245917.1472151198</v>
+        <v>247080.37697941926</v>
       </c>
       <c r="Y32" s="9">
-        <v>270664.75253709237</v>
+        <v>271980.3118267309</v>
       </c>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
@@ -25247,7 +25247,7 @@
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -25345,7 +25345,7 @@
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
     </row>
-    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>1</v>
       </c>
@@ -25416,10 +25416,10 @@
         <v>744158.68466356071</v>
       </c>
       <c r="X34" s="15">
-        <v>799264.16233284434</v>
+        <v>796153.64003592869</v>
       </c>
       <c r="Y34" s="15">
-        <v>854814.87369663641</v>
+        <v>851619.2218099155</v>
       </c>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
@@ -25493,7 +25493,7 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -25520,7 +25520,7 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
     </row>
-    <row r="36" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
@@ -25549,7 +25549,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -25647,7 +25647,7 @@
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -25745,7 +25745,7 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -25774,7 +25774,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -25803,9 +25803,9 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25832,7 +25832,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -25859,7 +25859,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -25888,9 +25888,9 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -25917,7 +25917,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -25946,7 +25946,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -25973,7 +25973,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="19" t="s">
         <v>5</v>
@@ -26002,7 +26002,7 @@
       <c r="X47" s="19"/>
       <c r="Y47" s="19"/>
     </row>
-    <row r="48" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>4</v>
       </c>
@@ -26077,7 +26077,7 @@
       </c>
       <c r="Y48" s="20"/>
     </row>
-    <row r="49" spans="1:91" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -26104,7 +26104,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -26172,10 +26172,10 @@
         <v>12.501510681957711</v>
       </c>
       <c r="W50" s="21">
-        <v>11.44353557901745</v>
+        <v>10.579182865653664</v>
       </c>
       <c r="X50" s="21">
-        <v>9.6076526641957827</v>
+        <v>9.6146843615071873</v>
       </c>
       <c r="Y50" s="21"/>
       <c r="Z50" s="10"/>
@@ -26245,7 +26245,7 @@
       <c r="CL50" s="10"/>
       <c r="CM50" s="10"/>
     </row>
-    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -26313,10 +26313,10 @@
         <v>6.6475178187140926</v>
       </c>
       <c r="W51" s="21">
-        <v>9.9010075265497193</v>
+        <v>10.434155700447789</v>
       </c>
       <c r="X51" s="21">
-        <v>13.96883033983687</v>
+        <v>14.063439265053688</v>
       </c>
       <c r="Y51" s="21"/>
       <c r="Z51" s="10"/>
@@ -26386,7 +26386,7 @@
       <c r="CL51" s="10"/>
       <c r="CM51" s="10"/>
     </row>
-    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -26479,7 +26479,7 @@
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
     </row>
-    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>1</v>
       </c>
@@ -26547,10 +26547,10 @@
         <v>10.699010776432999</v>
       </c>
       <c r="W53" s="21">
-        <v>10.985959676745665</v>
+        <v>10.536161971565633</v>
       </c>
       <c r="X53" s="21">
-        <v>10.888706810349518</v>
+        <v>10.933146272040631</v>
       </c>
       <c r="Y53" s="21"/>
       <c r="Z53" s="10"/>
@@ -26620,7 +26620,7 @@
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
     </row>
-    <row r="54" spans="1:91" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:91" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -26647,7 +26647,7 @@
       <c r="X54" s="16"/>
       <c r="Y54" s="16"/>
     </row>
-    <row r="55" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
@@ -26676,7 +26676,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -26769,7 +26769,7 @@
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
     </row>
-    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -26862,7 +26862,7 @@
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
     </row>
-    <row r="58" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -26891,7 +26891,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -26920,9 +26920,9 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26949,7 +26949,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -26976,7 +26976,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -27005,9 +27005,9 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27034,7 +27034,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
@@ -27063,7 +27063,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -27090,7 +27090,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="19" t="s">
         <v>5</v>
@@ -27119,7 +27119,7 @@
       <c r="X66" s="19"/>
       <c r="Y66" s="19"/>
     </row>
-    <row r="67" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>4</v>
       </c>
@@ -27194,7 +27194,7 @@
       </c>
       <c r="Y67" s="7"/>
     </row>
-    <row r="68" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:92" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -27221,7 +27221,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -27289,10 +27289,10 @@
         <v>9.391948295985884</v>
       </c>
       <c r="W69" s="21">
-        <v>6.6906288199780448</v>
+        <v>5.8666083005311123</v>
       </c>
       <c r="X69" s="21">
-        <v>5.56668875050606</v>
+        <v>5.5667702259852234</v>
       </c>
       <c r="Y69" s="21"/>
       <c r="Z69" s="10"/>
@@ -27362,7 +27362,7 @@
       <c r="CL69" s="10"/>
       <c r="CM69" s="10"/>
     </row>
-    <row r="70" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -27430,10 +27430,10 @@
         <v>5.6301587906935282</v>
       </c>
       <c r="W70" s="21">
-        <v>9.048185641012239</v>
+        <v>9.5640020316826906</v>
       </c>
       <c r="X70" s="21">
-        <v>10.063391513046554</v>
+        <v>10.077665880113869</v>
       </c>
       <c r="Y70" s="21"/>
       <c r="Z70" s="10"/>
@@ -27503,7 +27503,7 @@
       <c r="CL70" s="10"/>
       <c r="CM70" s="10"/>
     </row>
-    <row r="71" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -27596,7 +27596,7 @@
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
     </row>
-    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
         <v>1</v>
       </c>
@@ -27664,10 +27664,10 @@
         <v>8.2239698404766699</v>
       </c>
       <c r="W72" s="21">
-        <v>7.4050708276282649</v>
+        <v>6.9870790254736193</v>
       </c>
       <c r="X72" s="21">
-        <v>6.9502317233458797</v>
+        <v>6.9666932341706911</v>
       </c>
       <c r="Y72" s="21"/>
       <c r="Z72" s="10"/>
@@ -27737,7 +27737,7 @@
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
     </row>
-    <row r="73" spans="1:92" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:92" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -27764,7 +27764,7 @@
       <c r="X73" s="16"/>
       <c r="Y73" s="16"/>
     </row>
-    <row r="74" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
@@ -27793,7 +27793,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -27886,7 +27886,7 @@
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
     </row>
-    <row r="76" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -27980,7 +27980,7 @@
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
     </row>
-    <row r="77" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -28009,9 +28009,9 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -28038,7 +28038,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -28065,7 +28065,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -28094,9 +28094,9 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28123,7 +28123,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -28152,7 +28152,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -28179,7 +28179,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6" t="s">
         <v>5</v>
@@ -28208,7 +28208,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
     </row>
-    <row r="85" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>4</v>
       </c>
@@ -28285,7 +28285,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:92" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28312,7 +28312,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -28383,10 +28383,10 @@
         <v>108.01320297880601</v>
       </c>
       <c r="X87" s="21">
-        <v>112.82502842384766</v>
+        <v>112.82133163454179</v>
       </c>
       <c r="Y87" s="21">
-        <v>117.1438327154107</v>
+        <v>117.14741892635006</v>
       </c>
       <c r="Z87" s="10"/>
       <c r="AA87" s="10"/>
@@ -28456,7 +28456,7 @@
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
     </row>
-    <row r="88" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -28527,10 +28527,10 @@
         <v>104.76840527043447</v>
       </c>
       <c r="X88" s="21">
-        <v>105.58775671954179</v>
+        <v>105.60047246884126</v>
       </c>
       <c r="Y88" s="21">
-        <v>109.33438417720384</v>
+        <v>109.42413232970513</v>
       </c>
       <c r="Z88" s="10"/>
       <c r="AA88" s="10"/>
@@ -28600,7 +28600,7 @@
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
     </row>
-    <row r="89" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -28694,7 +28694,7 @@
       <c r="CM89" s="10"/>
       <c r="CN89" s="10"/>
     </row>
-    <row r="90" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="s">
         <v>1</v>
       </c>
@@ -28765,10 +28765,10 @@
         <v>107.02988848623276</v>
       </c>
       <c r="X90" s="21">
-        <v>110.59826874285692</v>
+        <v>110.58039155079607</v>
       </c>
       <c r="Y90" s="21">
-        <v>114.67108391203054</v>
+        <v>114.68084484830329</v>
       </c>
       <c r="Z90" s="10"/>
       <c r="AA90" s="10"/>
@@ -28838,7 +28838,7 @@
       <c r="CM90" s="10"/>
       <c r="CN90" s="10"/>
     </row>
-    <row r="91" spans="1:92" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:92" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -28865,7 +28865,7 @@
       <c r="X91" s="16"/>
       <c r="Y91" s="16"/>
     </row>
-    <row r="92" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
@@ -28894,7 +28894,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A93" s="12"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28921,7 +28921,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A94" s="12"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28948,7 +28948,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -28977,7 +28977,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -29006,9 +29006,9 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -29035,7 +29035,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -29062,7 +29062,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -29091,9 +29091,9 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29120,7 +29120,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -29149,7 +29149,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -29176,7 +29176,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="6" t="s">
         <v>5</v>
@@ -29205,7 +29205,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
     </row>
-    <row r="104" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>4</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="105" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -29309,7 +29309,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -29380,10 +29380,10 @@
         <v>70.335975314046536</v>
       </c>
       <c r="X106" s="21">
-        <v>70.625958366499574</v>
+        <v>70.363350215532108</v>
       </c>
       <c r="Y106" s="21">
-        <v>69.810044109818548</v>
+        <v>69.527068181944045</v>
       </c>
       <c r="Z106" s="10"/>
       <c r="AA106" s="10"/>
@@ -29457,7 +29457,7 @@
       <c r="CQ106" s="10"/>
       <c r="CR106" s="10"/>
     </row>
-    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -29528,10 +29528,10 @@
         <v>29.664024685953454</v>
       </c>
       <c r="X107" s="21">
-        <v>29.374041633500436</v>
+        <v>29.636649784467906</v>
       </c>
       <c r="Y107" s="21">
-        <v>30.189955890181448</v>
+        <v>30.472931818055947</v>
       </c>
       <c r="Z107" s="10"/>
       <c r="AA107" s="10"/>
@@ -29605,7 +29605,7 @@
       <c r="CQ107" s="10"/>
       <c r="CR107" s="10"/>
     </row>
-    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -29703,7 +29703,7 @@
       <c r="CQ108" s="10"/>
       <c r="CR108" s="10"/>
     </row>
-    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="s">
         <v>1</v>
       </c>
@@ -29851,7 +29851,7 @@
       <c r="CQ109" s="10"/>
       <c r="CR109" s="10"/>
     </row>
-    <row r="110" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -29878,7 +29878,7 @@
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
     </row>
-    <row r="111" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
@@ -29907,7 +29907,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -30005,7 +30005,7 @@
       <c r="CQ112" s="10"/>
       <c r="CR112" s="10"/>
     </row>
-    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="12"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -30103,7 +30103,7 @@
       <c r="CQ113" s="10"/>
       <c r="CR113" s="10"/>
     </row>
-    <row r="114" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -30132,7 +30132,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
@@ -30161,9 +30161,9 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -30190,7 +30190,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -30217,7 +30217,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -30246,9 +30246,9 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30275,7 +30275,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -30304,7 +30304,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -30331,7 +30331,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="6" t="s">
         <v>5</v>
@@ -30360,7 +30360,7 @@
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
     </row>
-    <row r="123" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>4</v>
       </c>
@@ -30437,7 +30437,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="124" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -30464,7 +30464,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -30535,10 +30535,10 @@
         <v>69.695661149035175</v>
       </c>
       <c r="X125" s="21">
-        <v>69.232056333246376</v>
+        <v>68.965741716853913</v>
       </c>
       <c r="Y125" s="21">
-        <v>68.336447941458246</v>
+        <v>68.063154886440799</v>
       </c>
       <c r="Z125" s="10"/>
       <c r="AA125" s="10"/>
@@ -30612,7 +30612,7 @@
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
     </row>
-    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -30683,10 +30683,10 @@
         <v>30.304338850964811</v>
       </c>
       <c r="X126" s="21">
-        <v>30.767943666753627</v>
+        <v>31.034258283146084</v>
       </c>
       <c r="Y126" s="21">
-        <v>31.66355205854175</v>
+        <v>31.936845113559205</v>
       </c>
       <c r="Z126" s="10"/>
       <c r="AA126" s="10"/>
@@ -30760,7 +30760,7 @@
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
     </row>
-    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="12"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -30858,7 +30858,7 @@
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
     </row>
-    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="14" t="s">
         <v>1</v>
       </c>
@@ -31006,7 +31006,7 @@
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
     </row>
-    <row r="129" spans="1:25" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -31033,7 +31033,7 @@
       <c r="X129" s="16"/>
       <c r="Y129" s="16"/>
     </row>
-    <row r="130" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24FADC-1C79-46C5-BF38-A1F4FAA2383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98C47C8-B4F9-419D-B489-67BD06911CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$Y$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$Z$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -607,13 +607,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -714,10 +717,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
@@ -758,10 +763,12 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="5" xr:uid="{37EE4D34-5AC4-4101-9702-F307705FA339}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{030ACEEF-A62F-4002-A48E-9912AAADE1C2}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -23596,47 +23603,47 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" style="1" customWidth="1"/>
-    <col min="2" max="25" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.5546875" style="11"/>
+    <col min="1" max="1" width="46.85546875" style="1" customWidth="1"/>
+    <col min="2" max="26" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23662,8 +23669,9 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>5</v>
@@ -23691,8 +23699,9 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -23768,8 +23777,11 @@
       <c r="Y10" s="7">
         <v>2023</v>
       </c>
+      <c r="Z10" s="7">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -23795,8 +23807,9 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23872,7 +23885,9 @@
       <c r="Y12" s="9">
         <v>679032.02213813039</v>
       </c>
-      <c r="Z12" s="10"/>
+      <c r="Z12" s="9">
+        <v>716028.07286086644</v>
+      </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -23944,7 +23959,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -24020,7 +24035,9 @@
       <c r="Y13" s="9">
         <v>297612.0963240267</v>
       </c>
-      <c r="Z13" s="10"/>
+      <c r="Z13" s="9">
+        <v>338875.72242033429</v>
+      </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
@@ -24092,7 +24109,7 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -24118,7 +24135,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
-      <c r="Z14" s="10"/>
+      <c r="Z14" s="13"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -24190,7 +24207,7 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
@@ -24266,7 +24283,9 @@
       <c r="Y15" s="15">
         <v>976644.11846215709</v>
       </c>
-      <c r="Z15" s="10"/>
+      <c r="Z15" s="15">
+        <v>1054903.7952812007</v>
+      </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
@@ -24338,7 +24357,7 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -24364,8 +24383,9 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
@@ -24393,8 +24413,9 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -24420,7 +24441,7 @@
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
-      <c r="Z18" s="10"/>
+      <c r="Z18" s="13"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
@@ -24492,7 +24513,7 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -24518,7 +24539,7 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="10"/>
+      <c r="Z19" s="13"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
@@ -24590,7 +24611,7 @@
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
     </row>
-    <row r="20" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -24618,8 +24639,9 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -24647,10 +24669,11 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -24676,8 +24699,9 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -24703,8 +24727,9 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -24732,10 +24757,11 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24761,8 +24787,9 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -24790,8 +24817,9 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -24817,8 +24845,9 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -24846,8 +24875,9 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>4</v>
       </c>
@@ -24923,8 +24953,11 @@
       <c r="Y29" s="18">
         <v>2023</v>
       </c>
+      <c r="Z29" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="30" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -24950,8 +24983,9 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -25027,7 +25061,9 @@
       <c r="Y31" s="9">
         <v>579638.90998318465</v>
       </c>
-      <c r="Z31" s="10"/>
+      <c r="Z31" s="9">
+        <v>589587.15020112065</v>
+      </c>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
@@ -25099,7 +25135,7 @@
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -25175,7 +25211,9 @@
       <c r="Y32" s="9">
         <v>271980.3118267309</v>
       </c>
-      <c r="Z32" s="10"/>
+      <c r="Z32" s="9">
+        <v>295098.39916842186</v>
+      </c>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
@@ -25247,7 +25285,7 @@
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -25273,7 +25311,7 @@
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
-      <c r="Z33" s="10"/>
+      <c r="Z33" s="13"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
@@ -25345,7 +25383,7 @@
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
     </row>
-    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>1</v>
       </c>
@@ -25421,7 +25459,9 @@
       <c r="Y34" s="15">
         <v>851619.2218099155</v>
       </c>
-      <c r="Z34" s="10"/>
+      <c r="Z34" s="15">
+        <v>884685.54936954251</v>
+      </c>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
@@ -25493,7 +25533,7 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -25519,8 +25559,9 @@
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
     </row>
-    <row r="36" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
@@ -25548,8 +25589,9 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -25575,7 +25617,7 @@
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
-      <c r="Z37" s="10"/>
+      <c r="Z37" s="13"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
@@ -25647,7 +25689,7 @@
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -25673,7 +25715,7 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
-      <c r="Z38" s="10"/>
+      <c r="Z38" s="13"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
@@ -25745,7 +25787,7 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -25773,8 +25815,9 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -25802,10 +25845,11 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25831,8 +25875,9 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -25858,8 +25903,9 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -25887,10 +25933,11 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -25916,8 +25963,9 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -25945,8 +25993,9 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -25972,8 +26021,9 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="19" t="s">
         <v>5</v>
@@ -26001,8 +26051,9 @@
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
       <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>4</v>
       </c>
@@ -26075,9 +26126,12 @@
       <c r="X48" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Y48" s="20"/>
+      <c r="Y48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z48" s="20"/>
     </row>
-    <row r="49" spans="1:91" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -26103,8 +26157,9 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -26177,8 +26232,10 @@
       <c r="X50" s="21">
         <v>9.6146843615071873</v>
       </c>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="10"/>
+      <c r="Y50" s="21">
+        <v>5.4483514056145879</v>
+      </c>
+      <c r="Z50" s="21"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
@@ -26245,7 +26302,7 @@
       <c r="CL50" s="10"/>
       <c r="CM50" s="10"/>
     </row>
-    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -26318,8 +26375,10 @@
       <c r="X51" s="21">
         <v>14.063439265053688</v>
       </c>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="10"/>
+      <c r="Y51" s="21">
+        <v>13.864902201885499</v>
+      </c>
+      <c r="Z51" s="21"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
@@ -26386,7 +26445,7 @@
       <c r="CL51" s="10"/>
       <c r="CM51" s="10"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -26412,7 +26471,7 @@
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
-      <c r="Z52" s="10"/>
+      <c r="Z52" s="13"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
@@ -26479,7 +26538,7 @@
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
     </row>
-    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>1</v>
       </c>
@@ -26552,8 +26611,10 @@
       <c r="X53" s="21">
         <v>10.933146272040631</v>
       </c>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="10"/>
+      <c r="Y53" s="21">
+        <v>8.0131211911942586</v>
+      </c>
+      <c r="Z53" s="21"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
@@ -26620,7 +26681,7 @@
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
     </row>
-    <row r="54" spans="1:91" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -26646,8 +26707,9 @@
       <c r="W54" s="16"/>
       <c r="X54" s="16"/>
       <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
     </row>
-    <row r="55" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
@@ -26675,8 +26737,9 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -26702,7 +26765,7 @@
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
-      <c r="Z56" s="10"/>
+      <c r="Z56" s="13"/>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
@@ -26769,7 +26832,7 @@
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -26795,7 +26858,7 @@
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
-      <c r="Z57" s="10"/>
+      <c r="Z57" s="13"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
@@ -26862,7 +26925,7 @@
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
     </row>
-    <row r="58" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -26890,8 +26953,9 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -26919,10 +26983,11 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26948,8 +27013,9 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -26975,8 +27041,9 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -27004,10 +27071,11 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27033,8 +27101,9 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
@@ -27062,8 +27131,9 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -27089,8 +27159,9 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="19" t="s">
         <v>5</v>
@@ -27118,8 +27189,9 @@
       <c r="W66" s="19"/>
       <c r="X66" s="19"/>
       <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>4</v>
       </c>
@@ -27192,9 +27264,12 @@
       <c r="X67" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Y67" s="7"/>
+      <c r="Y67" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z67" s="7"/>
     </row>
-    <row r="68" spans="1:92" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -27220,8 +27295,9 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -27294,8 +27370,10 @@
       <c r="X69" s="21">
         <v>5.5667702259852234</v>
       </c>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="10"/>
+      <c r="Y69" s="21">
+        <v>1.7162823348461131</v>
+      </c>
+      <c r="Z69" s="21"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
       <c r="AC69" s="10"/>
@@ -27362,7 +27440,7 @@
       <c r="CL69" s="10"/>
       <c r="CM69" s="10"/>
     </row>
-    <row r="70" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -27435,8 +27513,10 @@
       <c r="X70" s="21">
         <v>10.077665880113869</v>
       </c>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="10"/>
+      <c r="Y70" s="21">
+        <v>8.499912065847866</v>
+      </c>
+      <c r="Z70" s="21"/>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
       <c r="AC70" s="10"/>
@@ -27503,7 +27583,7 @@
       <c r="CL70" s="10"/>
       <c r="CM70" s="10"/>
     </row>
-    <row r="71" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -27529,7 +27609,7 @@
       <c r="W71" s="13"/>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
-      <c r="Z71" s="10"/>
+      <c r="Z71" s="13"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
       <c r="AC71" s="10"/>
@@ -27596,7 +27676,7 @@
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
     </row>
-    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>1</v>
       </c>
@@ -27669,8 +27749,10 @@
       <c r="X72" s="21">
         <v>6.9666932341706911</v>
       </c>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="10"/>
+      <c r="Y72" s="21">
+        <v>3.8827596551135173</v>
+      </c>
+      <c r="Z72" s="21"/>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
       <c r="AC72" s="10"/>
@@ -27737,7 +27819,7 @@
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
     </row>
-    <row r="73" spans="1:92" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:92" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -27763,8 +27845,9 @@
       <c r="W73" s="16"/>
       <c r="X73" s="16"/>
       <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
     </row>
-    <row r="74" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
@@ -27792,8 +27875,9 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -27819,7 +27903,7 @@
       <c r="W75" s="13"/>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
-      <c r="Z75" s="10"/>
+      <c r="Z75" s="13"/>
       <c r="AA75" s="10"/>
       <c r="AB75" s="10"/>
       <c r="AC75" s="10"/>
@@ -27886,7 +27970,7 @@
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
     </row>
-    <row r="76" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -27912,7 +27996,7 @@
       <c r="W76" s="13"/>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
-      <c r="Z76" s="10"/>
+      <c r="Z76" s="13"/>
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
       <c r="AC76" s="10"/>
@@ -27980,7 +28064,7 @@
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
     </row>
-    <row r="77" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -28008,10 +28092,11 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -28037,8 +28122,9 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -28064,8 +28150,9 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -28093,10 +28180,11 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28122,8 +28210,9 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -28151,8 +28240,9 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -28178,8 +28268,9 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="6" t="s">
         <v>5</v>
@@ -28207,8 +28298,9 @@
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
     </row>
-    <row r="85" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>4</v>
       </c>
@@ -28284,8 +28376,11 @@
       <c r="Y85" s="18">
         <v>2023</v>
       </c>
+      <c r="Z85" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="86" spans="1:92" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28311,8 +28406,9 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -28388,7 +28484,9 @@
       <c r="Y87" s="21">
         <v>117.14741892635006</v>
       </c>
-      <c r="Z87" s="10"/>
+      <c r="Z87" s="21">
+        <v>121.4456713679418</v>
+      </c>
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
@@ -28456,7 +28554,7 @@
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
     </row>
-    <row r="88" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -28532,7 +28630,9 @@
       <c r="Y88" s="21">
         <v>109.42413232970513</v>
       </c>
-      <c r="Z88" s="10"/>
+      <c r="Z88" s="21">
+        <v>114.83482234240361</v>
+      </c>
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
       <c r="AC88" s="10"/>
@@ -28600,7 +28700,7 @@
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
     </row>
-    <row r="89" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -28626,7 +28726,7 @@
       <c r="W89" s="13"/>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
-      <c r="Z89" s="10"/>
+      <c r="Z89" s="13"/>
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
@@ -28694,7 +28794,7 @@
       <c r="CM89" s="10"/>
       <c r="CN89" s="10"/>
     </row>
-    <row r="90" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>1</v>
       </c>
@@ -28770,7 +28870,9 @@
       <c r="Y90" s="21">
         <v>114.68084484830329</v>
       </c>
-      <c r="Z90" s="10"/>
+      <c r="Z90" s="21">
+        <v>119.24053648586907</v>
+      </c>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
       <c r="AC90" s="10"/>
@@ -28838,7 +28940,7 @@
       <c r="CM90" s="10"/>
       <c r="CN90" s="10"/>
     </row>
-    <row r="91" spans="1:92" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:92" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -28864,8 +28966,9 @@
       <c r="W91" s="16"/>
       <c r="X91" s="16"/>
       <c r="Y91" s="16"/>
+      <c r="Z91" s="16"/>
     </row>
-    <row r="92" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
@@ -28893,8 +28996,9 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28920,8 +29024,9 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28947,8 +29052,9 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -28976,8 +29082,9 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -29005,10 +29112,11 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -29034,8 +29142,9 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -29061,8 +29170,9 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -29090,10 +29200,11 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29119,8 +29230,9 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -29148,8 +29260,9 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -29175,8 +29288,9 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="6" t="s">
         <v>5</v>
@@ -29204,8 +29318,9 @@
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
     </row>
-    <row r="104" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>4</v>
       </c>
@@ -29281,8 +29396,11 @@
       <c r="Y104" s="18">
         <v>2023</v>
       </c>
+      <c r="Z104" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="105" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -29308,8 +29426,9 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -29385,7 +29504,9 @@
       <c r="Y106" s="21">
         <v>69.527068181944045</v>
       </c>
-      <c r="Z106" s="10"/>
+      <c r="Z106" s="21">
+        <v>67.876149091870346</v>
+      </c>
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
       <c r="AC106" s="10"/>
@@ -29457,7 +29578,7 @@
       <c r="CQ106" s="10"/>
       <c r="CR106" s="10"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -29533,7 +29654,9 @@
       <c r="Y107" s="21">
         <v>30.472931818055947</v>
       </c>
-      <c r="Z107" s="10"/>
+      <c r="Z107" s="21">
+        <v>32.123850908129661</v>
+      </c>
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
       <c r="AC107" s="10"/>
@@ -29605,7 +29728,7 @@
       <c r="CQ107" s="10"/>
       <c r="CR107" s="10"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -29631,7 +29754,7 @@
       <c r="W108" s="13"/>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
-      <c r="Z108" s="10"/>
+      <c r="Z108" s="13"/>
       <c r="AA108" s="10"/>
       <c r="AB108" s="10"/>
       <c r="AC108" s="10"/>
@@ -29703,7 +29826,7 @@
       <c r="CQ108" s="10"/>
       <c r="CR108" s="10"/>
     </row>
-    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>1</v>
       </c>
@@ -29779,7 +29902,9 @@
       <c r="Y109" s="21">
         <v>100</v>
       </c>
-      <c r="Z109" s="10"/>
+      <c r="Z109" s="21">
+        <v>100</v>
+      </c>
       <c r="AA109" s="10"/>
       <c r="AB109" s="10"/>
       <c r="AC109" s="10"/>
@@ -29851,7 +29976,7 @@
       <c r="CQ109" s="10"/>
       <c r="CR109" s="10"/>
     </row>
-    <row r="110" spans="1:96" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -29877,8 +30002,9 @@
       <c r="W110" s="16"/>
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
+      <c r="Z110" s="16"/>
     </row>
-    <row r="111" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
@@ -29906,8 +30032,9 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -29933,7 +30060,7 @@
       <c r="W112" s="13"/>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
-      <c r="Z112" s="10"/>
+      <c r="Z112" s="13"/>
       <c r="AA112" s="10"/>
       <c r="AB112" s="10"/>
       <c r="AC112" s="10"/>
@@ -30005,7 +30132,7 @@
       <c r="CQ112" s="10"/>
       <c r="CR112" s="10"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -30031,7 +30158,7 @@
       <c r="W113" s="13"/>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
-      <c r="Z113" s="10"/>
+      <c r="Z113" s="13"/>
       <c r="AA113" s="10"/>
       <c r="AB113" s="10"/>
       <c r="AC113" s="10"/>
@@ -30103,7 +30230,7 @@
       <c r="CQ113" s="10"/>
       <c r="CR113" s="10"/>
     </row>
-    <row r="114" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -30131,8 +30258,9 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
@@ -30160,10 +30288,11 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -30189,8 +30318,9 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -30216,8 +30346,9 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -30245,10 +30376,11 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30274,8 +30406,9 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -30303,8 +30436,9 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -30330,8 +30464,9 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="6" t="s">
         <v>5</v>
@@ -30359,8 +30494,9 @@
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
+      <c r="Z122" s="6"/>
     </row>
-    <row r="123" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>4</v>
       </c>
@@ -30436,8 +30572,11 @@
       <c r="Y123" s="18">
         <v>2023</v>
       </c>
+      <c r="Z123" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="124" spans="1:96" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -30463,8 +30602,9 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -30540,7 +30680,9 @@
       <c r="Y125" s="21">
         <v>68.063154886440799</v>
       </c>
-      <c r="Z125" s="10"/>
+      <c r="Z125" s="21">
+        <v>66.643696240012147</v>
+      </c>
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
       <c r="AC125" s="10"/>
@@ -30612,7 +30754,7 @@
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -30688,7 +30830,9 @@
       <c r="Y126" s="21">
         <v>31.936845113559205</v>
       </c>
-      <c r="Z126" s="10"/>
+      <c r="Z126" s="21">
+        <v>33.356303759987846</v>
+      </c>
       <c r="AA126" s="10"/>
       <c r="AB126" s="10"/>
       <c r="AC126" s="10"/>
@@ -30760,7 +30904,7 @@
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -30786,7 +30930,7 @@
       <c r="W127" s="13"/>
       <c r="X127" s="13"/>
       <c r="Y127" s="13"/>
-      <c r="Z127" s="10"/>
+      <c r="Z127" s="13"/>
       <c r="AA127" s="10"/>
       <c r="AB127" s="10"/>
       <c r="AC127" s="10"/>
@@ -30858,7 +31002,7 @@
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
     </row>
-    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>1</v>
       </c>
@@ -30934,7 +31078,9 @@
       <c r="Y128" s="21">
         <v>100</v>
       </c>
-      <c r="Z128" s="10"/>
+      <c r="Z128" s="21">
+        <v>100</v>
+      </c>
       <c r="AA128" s="10"/>
       <c r="AB128" s="10"/>
       <c r="AC128" s="10"/>
@@ -31006,7 +31152,7 @@
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
     </row>
-    <row r="129" spans="1:25" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -31032,8 +31178,9 @@
       <c r="W129" s="16"/>
       <c r="X129" s="16"/>
       <c r="Y129" s="16"/>
+      <c r="Z129" s="16"/>
     </row>
-    <row r="130" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
@@ -31061,6 +31208,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -31068,9 +31216,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="24" man="1"/>
-    <brk id="76" max="24" man="1"/>
-    <brk id="94" max="24" man="1"/>
+    <brk id="38" max="25" man="1"/>
+    <brk id="76" max="25" man="1"/>
+    <brk id="94" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98C47C8-B4F9-419D-B489-67BD06911CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84204846-DE5D-4687-86DD-BFBFB83B6ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="2" r:id="rId1"/>
@@ -616,7 +616,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23598,9 +23598,9 @@
   <dimension ref="A1:CR130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="63" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23883,10 +23883,10 @@
         <v>619471.76702958462</v>
       </c>
       <c r="Y12" s="9">
-        <v>679032.02213813039</v>
+        <v>673342.09069326171</v>
       </c>
       <c r="Z12" s="9">
-        <v>716028.07286086644</v>
+        <v>716699.53101314208</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -24033,10 +24033,10 @@
         <v>260918.04546806082</v>
       </c>
       <c r="Y13" s="9">
-        <v>297612.0963240267</v>
+        <v>296208.0478517508</v>
       </c>
       <c r="Z13" s="9">
-        <v>338875.72242033429</v>
+        <v>336380.8867773618</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -24281,10 +24281,10 @@
         <v>880389.81249764538</v>
       </c>
       <c r="Y15" s="15">
-        <v>976644.11846215709</v>
+        <v>969550.13854501257</v>
       </c>
       <c r="Z15" s="15">
-        <v>1054903.7952812007</v>
+        <v>1053080.4177905039</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -25059,10 +25059,10 @@
         <v>549073.26305650943</v>
       </c>
       <c r="Y31" s="9">
-        <v>579638.90998318465</v>
+        <v>573898.55689843139</v>
       </c>
       <c r="Z31" s="9">
-        <v>589587.15020112065</v>
+        <v>588967.98929395166</v>
       </c>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -25209,10 +25209,10 @@
         <v>247080.37697941926</v>
       </c>
       <c r="Y32" s="9">
-        <v>271980.3118267309</v>
+        <v>270819.13825145434</v>
       </c>
       <c r="Z32" s="9">
-        <v>295098.39916842186</v>
+        <v>293083.03358792962</v>
       </c>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
@@ -25457,10 +25457,10 @@
         <v>796153.64003592869</v>
       </c>
       <c r="Y34" s="15">
-        <v>851619.2218099155</v>
+        <v>844717.69514988572</v>
       </c>
       <c r="Z34" s="15">
-        <v>884685.54936954251</v>
+        <v>882051.02288188133</v>
       </c>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
@@ -26230,10 +26230,10 @@
         <v>10.579182865653664</v>
       </c>
       <c r="X50" s="21">
-        <v>9.6146843615071873</v>
+        <v>8.6961709202647768</v>
       </c>
       <c r="Y50" s="21">
-        <v>5.4483514056145879</v>
+        <v>6.4391400625557651</v>
       </c>
       <c r="Z50" s="21"/>
       <c r="AA50" s="10"/>
@@ -26373,10 +26373,10 @@
         <v>10.434155700447789</v>
       </c>
       <c r="X51" s="21">
-        <v>14.063439265053688</v>
+        <v>13.525320688487923</v>
       </c>
       <c r="Y51" s="21">
-        <v>13.864902201885499</v>
+        <v>13.562372534090343</v>
       </c>
       <c r="Z51" s="21"/>
       <c r="AA51" s="10"/>
@@ -26609,10 +26609,10 @@
         <v>10.536161971565633</v>
       </c>
       <c r="X53" s="21">
-        <v>10.933146272040631</v>
+        <v>10.127369124640538</v>
       </c>
       <c r="Y53" s="21">
-        <v>8.0131211911942586</v>
+        <v>8.6153645824695388</v>
       </c>
       <c r="Z53" s="21"/>
       <c r="AA53" s="10"/>
@@ -27368,10 +27368,10 @@
         <v>5.8666083005311123</v>
       </c>
       <c r="X69" s="21">
-        <v>5.5667702259852234</v>
+        <v>4.5213080862338302</v>
       </c>
       <c r="Y69" s="21">
-        <v>1.7162823348461131</v>
+        <v>2.6258007124048532</v>
       </c>
       <c r="Z69" s="21"/>
       <c r="AA69" s="10"/>
@@ -27511,10 +27511,10 @@
         <v>9.5640020316826906</v>
       </c>
       <c r="X70" s="21">
-        <v>10.077665880113869</v>
+        <v>9.6077080512194613</v>
       </c>
       <c r="Y70" s="21">
-        <v>8.499912065847866</v>
+        <v>8.2209460824010705</v>
       </c>
       <c r="Z70" s="21"/>
       <c r="AA70" s="10"/>
@@ -27747,10 +27747,10 @@
         <v>6.9870790254736193</v>
       </c>
       <c r="X72" s="21">
-        <v>6.9666932341706911</v>
+        <v>6.0998345886813325</v>
       </c>
       <c r="Y72" s="21">
-        <v>3.8827596551135173</v>
+        <v>4.4196218389116666</v>
       </c>
       <c r="Z72" s="21"/>
       <c r="AA72" s="10"/>
@@ -28482,10 +28482,10 @@
         <v>112.82133163454179</v>
       </c>
       <c r="Y87" s="21">
-        <v>117.14741892635006</v>
+        <v>117.3277197859255</v>
       </c>
       <c r="Z87" s="21">
-        <v>121.4456713679418</v>
+        <v>121.68734872540587</v>
       </c>
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
@@ -28628,10 +28628,10 @@
         <v>105.60047246884126</v>
       </c>
       <c r="Y88" s="21">
-        <v>109.42413232970513</v>
+        <v>109.37485798242331</v>
       </c>
       <c r="Z88" s="21">
-        <v>114.83482234240361</v>
+        <v>114.77323769287455</v>
       </c>
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
@@ -28868,10 +28868,10 @@
         <v>110.58039155079607</v>
       </c>
       <c r="Y90" s="21">
-        <v>114.68084484830329</v>
+        <v>114.77800738777904</v>
       </c>
       <c r="Z90" s="21">
-        <v>119.24053648586907</v>
+        <v>119.38996616656334</v>
       </c>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
@@ -29502,10 +29502,10 @@
         <v>70.363350215532108</v>
       </c>
       <c r="Y106" s="21">
-        <v>69.527068181944045</v>
+        <v>69.448919032050753</v>
       </c>
       <c r="Z106" s="21">
-        <v>67.876149091870346</v>
+        <v>68.057435966463842</v>
       </c>
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
@@ -29652,10 +29652,10 @@
         <v>29.636649784467906</v>
       </c>
       <c r="Y107" s="21">
-        <v>30.472931818055947</v>
+        <v>30.55108096794924</v>
       </c>
       <c r="Z107" s="21">
-        <v>32.123850908129661</v>
+        <v>31.942564033536158</v>
       </c>
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
@@ -30678,10 +30678,10 @@
         <v>68.965741716853913</v>
       </c>
       <c r="Y125" s="21">
-        <v>68.063154886440799</v>
+        <v>67.939686855571253</v>
       </c>
       <c r="Z125" s="21">
-        <v>66.643696240012147</v>
+        <v>66.772553289450968</v>
       </c>
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
@@ -30828,10 +30828,10 @@
         <v>31.034258283146084</v>
       </c>
       <c r="Y126" s="21">
-        <v>31.936845113559205</v>
+        <v>32.06031314442874</v>
       </c>
       <c r="Z126" s="21">
-        <v>33.356303759987846</v>
+        <v>33.22744671054901</v>
       </c>
       <c r="AA126" s="10"/>
       <c r="AB126" s="10"/>

--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84204846-DE5D-4687-86DD-BFBFB83B6ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9C45F-96F4-4EA2-A686-723A8D1D709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$Z$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$AA$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -610,13 +610,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23600,14 +23603,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="63" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.85546875" style="1" customWidth="1"/>
-    <col min="2" max="26" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.5703125" style="11"/>
+    <col min="2" max="27" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.5703125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23622,7 +23625,7 @@
     </row>
     <row r="3" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23635,7 +23638,7 @@
     </row>
     <row r="6" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23670,6 +23673,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23700,6 +23704,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -23779,6 +23784,9 @@
       </c>
       <c r="Z10" s="7">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23808,6 +23816,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -23888,7 +23897,9 @@
       <c r="Z12" s="9">
         <v>716699.53101314208</v>
       </c>
-      <c r="AA12" s="10"/>
+      <c r="AA12" s="9">
+        <v>813281.85014137789</v>
+      </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
@@ -24038,7 +24049,9 @@
       <c r="Z13" s="9">
         <v>336380.8867773618</v>
       </c>
-      <c r="AA13" s="10"/>
+      <c r="AA13" s="9">
+        <v>373989.47632272821</v>
+      </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -24136,7 +24149,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
-      <c r="AA14" s="10"/>
+      <c r="AA14" s="13"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -24286,7 +24299,9 @@
       <c r="Z15" s="15">
         <v>1053080.4177905039</v>
       </c>
-      <c r="AA15" s="10"/>
+      <c r="AA15" s="15">
+        <v>1187271.3264641061</v>
+      </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -24384,6 +24399,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
     </row>
     <row r="17" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -24414,6 +24430,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
@@ -24442,7 +24459,7 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="10"/>
+      <c r="AA18" s="13"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -24540,7 +24557,7 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="10"/>
+      <c r="AA19" s="13"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
@@ -24640,6 +24657,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -24670,10 +24688,11 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -24700,6 +24719,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -24728,6 +24748,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -24758,10 +24779,11 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24788,6 +24810,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -24818,6 +24841,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -24846,6 +24870,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -24876,6 +24901,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -24955,6 +24981,9 @@
       </c>
       <c r="Z29" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA29" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24984,6 +25013,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -25064,7 +25094,9 @@
       <c r="Z31" s="9">
         <v>588967.98929395166</v>
       </c>
-      <c r="AA31" s="10"/>
+      <c r="AA31" s="9">
+        <v>643703.10486624856</v>
+      </c>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
@@ -25214,7 +25246,9 @@
       <c r="Z32" s="9">
         <v>293083.03358792962</v>
       </c>
-      <c r="AA32" s="10"/>
+      <c r="AA32" s="9">
+        <v>312036.72848186275</v>
+      </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
@@ -25312,7 +25346,7 @@
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
-      <c r="AA33" s="10"/>
+      <c r="AA33" s="13"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
@@ -25462,7 +25496,9 @@
       <c r="Z34" s="15">
         <v>882051.02288188133</v>
       </c>
-      <c r="AA34" s="10"/>
+      <c r="AA34" s="15">
+        <v>955739.83334811125</v>
+      </c>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
@@ -25560,6 +25596,7 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
     </row>
     <row r="36" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -25590,6 +25627,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
@@ -25618,7 +25656,7 @@
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
-      <c r="AA37" s="10"/>
+      <c r="AA37" s="13"/>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
@@ -25716,7 +25754,7 @@
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
-      <c r="AA38" s="10"/>
+      <c r="AA38" s="13"/>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
@@ -25816,6 +25854,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -25846,10 +25885,11 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25876,6 +25916,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -25904,6 +25945,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -25934,10 +25976,11 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -25964,6 +26007,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -25994,6 +26038,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -26022,6 +26067,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -26052,6 +26098,7 @@
       <c r="X47" s="19"/>
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
     </row>
     <row r="48" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
@@ -26129,7 +26176,10 @@
       <c r="Y48" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Z48" s="20"/>
+      <c r="Z48" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA48" s="20"/>
     </row>
     <row r="49" spans="1:91" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -26158,6 +26208,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -26235,8 +26286,10 @@
       <c r="Y50" s="21">
         <v>6.4391400625557651</v>
       </c>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="10"/>
+      <c r="Z50" s="21">
+        <v>13.475984697758193</v>
+      </c>
+      <c r="AA50" s="21"/>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
@@ -26378,8 +26431,10 @@
       <c r="Y51" s="21">
         <v>13.562372534090343</v>
       </c>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="10"/>
+      <c r="Z51" s="21">
+        <v>11.180358642153806</v>
+      </c>
+      <c r="AA51" s="21"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
@@ -26472,7 +26527,7 @@
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
-      <c r="AA52" s="10"/>
+      <c r="AA52" s="13"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
@@ -26614,8 +26669,10 @@
       <c r="Y53" s="21">
         <v>8.6153645824695388</v>
       </c>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="10"/>
+      <c r="Z53" s="21">
+        <v>12.742702874976231</v>
+      </c>
+      <c r="AA53" s="21"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
@@ -26708,6 +26765,7 @@
       <c r="X54" s="16"/>
       <c r="Y54" s="16"/>
       <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
     </row>
     <row r="55" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -26738,6 +26796,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
@@ -26766,7 +26825,7 @@
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
-      <c r="AA56" s="10"/>
+      <c r="AA56" s="13"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
@@ -26859,7 +26918,7 @@
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
-      <c r="AA57" s="10"/>
+      <c r="AA57" s="13"/>
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
@@ -26954,6 +27013,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -26984,10 +27044,11 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -27014,6 +27075,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -27042,6 +27104,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -27072,10 +27135,11 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27102,6 +27166,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -27132,6 +27197,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -27160,6 +27226,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
@@ -27190,6 +27257,7 @@
       <c r="X66" s="19"/>
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
     </row>
     <row r="67" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
@@ -27267,7 +27335,10 @@
       <c r="Y67" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z67" s="7"/>
+      <c r="Z67" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA67" s="7"/>
     </row>
     <row r="68" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -27296,6 +27367,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -27373,8 +27445,10 @@
       <c r="Y69" s="21">
         <v>2.6258007124048532</v>
       </c>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="10"/>
+      <c r="Z69" s="21">
+        <v>9.2933939649101802</v>
+      </c>
+      <c r="AA69" s="21"/>
       <c r="AB69" s="10"/>
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
@@ -27516,8 +27590,10 @@
       <c r="Y70" s="21">
         <v>8.2209460824010705</v>
       </c>
-      <c r="Z70" s="21"/>
-      <c r="AA70" s="10"/>
+      <c r="Z70" s="21">
+        <v>6.4670051561503072</v>
+      </c>
+      <c r="AA70" s="21"/>
       <c r="AB70" s="10"/>
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
@@ -27610,7 +27686,7 @@
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
-      <c r="AA71" s="10"/>
+      <c r="AA71" s="13"/>
       <c r="AB71" s="10"/>
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
@@ -27752,8 +27828,10 @@
       <c r="Y72" s="21">
         <v>4.4196218389116666</v>
       </c>
-      <c r="Z72" s="21"/>
-      <c r="AA72" s="10"/>
+      <c r="Z72" s="21">
+        <v>8.3542571296465411</v>
+      </c>
+      <c r="AA72" s="21"/>
       <c r="AB72" s="10"/>
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
@@ -27846,6 +27924,7 @@
       <c r="X73" s="16"/>
       <c r="Y73" s="16"/>
       <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
     </row>
     <row r="74" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -27876,6 +27955,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
     </row>
     <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
@@ -27904,7 +27984,7 @@
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
-      <c r="AA75" s="10"/>
+      <c r="AA75" s="13"/>
       <c r="AB75" s="10"/>
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
@@ -27997,7 +28077,7 @@
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
-      <c r="AA76" s="10"/>
+      <c r="AA76" s="13"/>
       <c r="AB76" s="10"/>
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
@@ -28093,10 +28173,11 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
     </row>
     <row r="78" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -28123,6 +28204,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
     </row>
     <row r="79" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -28151,6 +28233,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
     </row>
     <row r="80" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -28181,10 +28264,11 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
     </row>
     <row r="81" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28211,6 +28295,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
     </row>
     <row r="82" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -28241,6 +28326,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
     </row>
     <row r="83" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -28269,6 +28355,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
     </row>
     <row r="84" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -28299,6 +28386,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
     </row>
     <row r="85" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
@@ -28378,6 +28466,9 @@
       </c>
       <c r="Z85" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA85" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="86" spans="1:92" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28407,6 +28498,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
     </row>
     <row r="87" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
@@ -28487,7 +28579,9 @@
       <c r="Z87" s="21">
         <v>121.68734872540587</v>
       </c>
-      <c r="AA87" s="10"/>
+      <c r="AA87" s="21">
+        <v>126.34424845758126</v>
+      </c>
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
@@ -28633,7 +28727,9 @@
       <c r="Z88" s="21">
         <v>114.77323769287455</v>
       </c>
-      <c r="AA88" s="10"/>
+      <c r="AA88" s="21">
+        <v>119.85431270936635</v>
+      </c>
       <c r="AB88" s="10"/>
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
@@ -28727,7 +28823,7 @@
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
-      <c r="AA89" s="10"/>
+      <c r="AA89" s="13"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
@@ -28873,7 +28969,9 @@
       <c r="Z90" s="21">
         <v>119.38996616656334</v>
       </c>
-      <c r="AA90" s="10"/>
+      <c r="AA90" s="21">
+        <v>124.22536814280332</v>
+      </c>
       <c r="AB90" s="10"/>
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
@@ -28967,6 +29065,7 @@
       <c r="X91" s="16"/>
       <c r="Y91" s="16"/>
       <c r="Z91" s="16"/>
+      <c r="AA91" s="16"/>
     </row>
     <row r="92" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -28997,6 +29096,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
     </row>
     <row r="93" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
@@ -29025,6 +29125,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
@@ -29053,6 +29154,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
     </row>
     <row r="95" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -29083,6 +29185,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
     </row>
     <row r="96" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -29113,10 +29216,11 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
     </row>
     <row r="97" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -29143,6 +29247,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
     </row>
     <row r="98" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -29171,6 +29276,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
     </row>
     <row r="99" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -29201,10 +29307,11 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
     </row>
     <row r="100" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29231,6 +29338,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
     </row>
     <row r="101" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -29261,6 +29369,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
     </row>
     <row r="102" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -29289,6 +29398,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
     </row>
     <row r="103" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
@@ -29319,6 +29429,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
     </row>
     <row r="104" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
@@ -29398,6 +29509,9 @@
       </c>
       <c r="Z104" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA104" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="105" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29427,6 +29541,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
     </row>
     <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -29507,7 +29622,9 @@
       <c r="Z106" s="21">
         <v>68.057435966463842</v>
       </c>
-      <c r="AA106" s="10"/>
+      <c r="AA106" s="21">
+        <v>68.500083511952411</v>
+      </c>
       <c r="AB106" s="10"/>
       <c r="AC106" s="10"/>
       <c r="AD106" s="10"/>
@@ -29657,7 +29774,9 @@
       <c r="Z107" s="21">
         <v>31.942564033536158</v>
       </c>
-      <c r="AA107" s="10"/>
+      <c r="AA107" s="21">
+        <v>31.499916488047585</v>
+      </c>
       <c r="AB107" s="10"/>
       <c r="AC107" s="10"/>
       <c r="AD107" s="10"/>
@@ -29755,7 +29874,7 @@
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
       <c r="Z108" s="13"/>
-      <c r="AA108" s="10"/>
+      <c r="AA108" s="13"/>
       <c r="AB108" s="10"/>
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
@@ -29905,7 +30024,9 @@
       <c r="Z109" s="21">
         <v>100</v>
       </c>
-      <c r="AA109" s="10"/>
+      <c r="AA109" s="21">
+        <v>100</v>
+      </c>
       <c r="AB109" s="10"/>
       <c r="AC109" s="10"/>
       <c r="AD109" s="10"/>
@@ -30003,6 +30124,7 @@
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
       <c r="Z110" s="16"/>
+      <c r="AA110" s="16"/>
     </row>
     <row r="111" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -30033,6 +30155,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
     </row>
     <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
@@ -30061,7 +30184,7 @@
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
-      <c r="AA112" s="10"/>
+      <c r="AA112" s="13"/>
       <c r="AB112" s="10"/>
       <c r="AC112" s="10"/>
       <c r="AD112" s="10"/>
@@ -30159,7 +30282,7 @@
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
       <c r="Z113" s="13"/>
-      <c r="AA113" s="10"/>
+      <c r="AA113" s="13"/>
       <c r="AB113" s="10"/>
       <c r="AC113" s="10"/>
       <c r="AD113" s="10"/>
@@ -30259,6 +30382,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
     </row>
     <row r="115" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -30289,10 +30413,11 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
     </row>
     <row r="116" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -30319,6 +30444,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
     </row>
     <row r="117" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -30347,6 +30473,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
     </row>
     <row r="118" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -30377,10 +30504,11 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
     </row>
     <row r="119" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30407,6 +30535,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
     </row>
     <row r="120" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -30437,6 +30566,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
     </row>
     <row r="121" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -30465,6 +30595,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
     </row>
     <row r="122" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
@@ -30495,6 +30626,7 @@
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
+      <c r="AA122" s="6"/>
     </row>
     <row r="123" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
@@ -30574,6 +30706,9 @@
       </c>
       <c r="Z123" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA123" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="124" spans="1:96" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30603,6 +30738,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
     </row>
     <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
@@ -30683,7 +30819,9 @@
       <c r="Z125" s="21">
         <v>66.772553289450968</v>
       </c>
-      <c r="AA125" s="10"/>
+      <c r="AA125" s="21">
+        <v>67.351289797271761</v>
+      </c>
       <c r="AB125" s="10"/>
       <c r="AC125" s="10"/>
       <c r="AD125" s="10"/>
@@ -30833,7 +30971,9 @@
       <c r="Z126" s="21">
         <v>33.22744671054901</v>
       </c>
-      <c r="AA126" s="10"/>
+      <c r="AA126" s="21">
+        <v>32.648710202728246</v>
+      </c>
       <c r="AB126" s="10"/>
       <c r="AC126" s="10"/>
       <c r="AD126" s="10"/>
@@ -30931,7 +31071,7 @@
       <c r="X127" s="13"/>
       <c r="Y127" s="13"/>
       <c r="Z127" s="13"/>
-      <c r="AA127" s="10"/>
+      <c r="AA127" s="13"/>
       <c r="AB127" s="10"/>
       <c r="AC127" s="10"/>
       <c r="AD127" s="10"/>
@@ -31081,7 +31221,9 @@
       <c r="Z128" s="21">
         <v>100</v>
       </c>
-      <c r="AA128" s="10"/>
+      <c r="AA128" s="21">
+        <v>100</v>
+      </c>
       <c r="AB128" s="10"/>
       <c r="AC128" s="10"/>
       <c r="AD128" s="10"/>
@@ -31152,7 +31294,7 @@
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
     </row>
-    <row r="129" spans="1:26" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -31179,8 +31321,9 @@
       <c r="X129" s="16"/>
       <c r="Y129" s="16"/>
       <c r="Z129" s="16"/>
+      <c r="AA129" s="16"/>
     </row>
-    <row r="130" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
@@ -31209,6 +31352,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -31216,9 +31360,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="25" man="1"/>
-    <brk id="76" max="25" man="1"/>
-    <brk id="94" max="25" man="1"/>
+    <brk id="38" max="26" man="1"/>
+    <brk id="76" max="26" man="1"/>
+    <brk id="94" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>